--- a/20_設計/22_データベース設計/LevelSetting.xlsx
+++ b/20_設計/22_データベース設計/LevelSetting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\systemdev\2023Dev3Early\20_設計\22_データベース設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BC25F9-9BFA-485E-BA4F-70FF69759203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4989ED8B-43AA-4890-ADC2-D91AA638E84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18830" yWindow="10800" windowWidth="19660" windowHeight="10890" xr2:uid="{F04564F2-EDC1-4E95-8561-ED2736F1834C}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{F04564F2-EDC1-4E95-8561-ED2736F1834C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,14 +419,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5ED66D7-A035-45C8-87FC-6361ACBBCE96}">
-  <dimension ref="B1:O1001"/>
+  <dimension ref="B1:O1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A992" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C1007" sqref="C1007"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" customWidth="1"/>
     <col min="8" max="8" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.69921875" customWidth="1"/>
     <col min="15" max="15" width="10.3984375" bestFit="1" customWidth="1"/>
@@ -21871,11 +21873,11 @@
         <v>385</v>
       </c>
       <c r="E963">
-        <f t="shared" ref="E963:E1001" si="68">INT(B963/10)+1</f>
+        <f t="shared" ref="E963:E1006" si="68">INT(B963/10)+1</f>
         <v>97</v>
       </c>
       <c r="F963">
-        <f t="shared" ref="F963:F1001" si="69">E963*5</f>
+        <f t="shared" ref="F963:F1006" si="69">E963*5</f>
         <v>485</v>
       </c>
     </row>
@@ -21884,7 +21886,7 @@
         <v>963</v>
       </c>
       <c r="C964">
-        <f t="shared" ref="C964:C1001" si="70">INT((B964*B964+3)/5)</f>
+        <f t="shared" ref="C964:C1004" si="70">INT((B964*B964+3)/5)</f>
         <v>185474</v>
       </c>
       <c r="D964">
@@ -22674,6 +22676,92 @@
       <c r="F1001">
         <f t="shared" si="69"/>
         <v>505</v>
+      </c>
+    </row>
+    <row r="1003" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B1003">
+        <v>7</v>
+      </c>
+      <c r="C1003">
+        <f t="shared" si="70"/>
+        <v>10</v>
+      </c>
+      <c r="E1003">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="F1003">
+        <f t="shared" si="69"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1004" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B1004">
+        <v>4444</v>
+      </c>
+      <c r="C1004">
+        <f t="shared" si="70"/>
+        <v>3949827</v>
+      </c>
+      <c r="E1004">
+        <f t="shared" si="68"/>
+        <v>445</v>
+      </c>
+      <c r="F1004">
+        <f t="shared" si="69"/>
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="1005" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B1005">
+        <v>530000</v>
+      </c>
+      <c r="C1005">
+        <f>INT((B1005*B1005+3)/5)</f>
+        <v>56180000000</v>
+      </c>
+      <c r="E1005">
+        <f t="shared" si="68"/>
+        <v>53001</v>
+      </c>
+      <c r="F1005">
+        <f t="shared" si="69"/>
+        <v>265005</v>
+      </c>
+    </row>
+    <row r="1006" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B1006">
+        <v>7777777</v>
+      </c>
+      <c r="C1006">
+        <f>INT((B1006*B1006+3)/5)</f>
+        <v>12098763012346</v>
+      </c>
+      <c r="E1006">
+        <f t="shared" si="68"/>
+        <v>777778</v>
+      </c>
+      <c r="F1006">
+        <f t="shared" si="69"/>
+        <v>3888890</v>
+      </c>
+    </row>
+    <row r="1007" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B1007">
+        <v>3500000000</v>
+      </c>
+      <c r="C1007">
+        <f>INT((B1007*B1007+3)/5)</f>
+        <v>2.45E+18</v>
+      </c>
+    </row>
+    <row r="1008" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B1008">
+        <v>7777777</v>
+      </c>
+      <c r="C1008">
+        <f>B1008*7</f>
+        <v>54444439</v>
       </c>
     </row>
   </sheetData>

--- a/20_設計/22_データベース設計/LevelSetting.xlsx
+++ b/20_設計/22_データベース設計/LevelSetting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\systemdev\2023Dev3Early\20_設計\22_データベース設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4989ED8B-43AA-4890-ADC2-D91AA638E84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEE820F-E659-42AB-9723-3A1AE2D3DC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{F04564F2-EDC1-4E95-8561-ED2736F1834C}"/>
+    <workbookView xWindow="19110" yWindow="10800" windowWidth="19380" windowHeight="10890" xr2:uid="{F04564F2-EDC1-4E95-8561-ED2736F1834C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
   <si>
     <t>DP</t>
     <phoneticPr fontId="1"/>
@@ -419,22 +419,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5ED66D7-A035-45C8-87FC-6361ACBBCE96}">
-  <dimension ref="B1:O1008"/>
+  <dimension ref="B1:O1046"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A992" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C1007" sqref="C1007"/>
+    <sheetView tabSelected="1" topLeftCell="A985" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E1007" sqref="E1007"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" customWidth="1"/>
-    <col min="8" max="8" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.69921875" customWidth="1"/>
-    <col min="15" max="15" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" customWidth="1"/>
+    <col min="8" max="8" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -472,7 +475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2">
         <v>1</v>
       </c>
@@ -519,7 +522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3">
         <v>2</v>
       </c>
@@ -567,7 +570,7 @@
         <v>2.4494897427831779</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B4">
         <v>3</v>
       </c>
@@ -615,7 +618,7 @@
         <v>3.3166247903553998</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <v>4</v>
       </c>
@@ -663,7 +666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>5</v>
       </c>
@@ -711,7 +714,7 @@
         <v>4.5825756949558398</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <v>6</v>
       </c>
@@ -739,7 +742,7 @@
         <v>5.0990195135927845</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B8">
         <v>7</v>
       </c>
@@ -767,7 +770,7 @@
         <v>5.5677643628300215</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B9">
         <v>8</v>
       </c>
@@ -810,7 +813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
         <v>9</v>
       </c>
@@ -857,7 +860,7 @@
         <v>6.4031242374328485</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <v>10</v>
       </c>
@@ -905,7 +908,7 @@
         <v>6.7823299831252681</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
         <v>11</v>
       </c>
@@ -953,7 +956,7 @@
         <v>7.1414284285428504</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B13">
         <v>12</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>7.4833147735478827</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B14">
         <v>13</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>7.810249675906654</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B15">
         <v>14</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>8.1240384046359608</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B16">
         <v>15</v>
       </c>
@@ -1105,7 +1108,7 @@
         <v>8.426149773176359</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B17">
         <v>16</v>
       </c>
@@ -1133,7 +1136,7 @@
         <v>8.717797887081348</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B18">
         <v>17</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B19">
         <v>18</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>9.2736184954957039</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B20">
         <v>19</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>9.5393920141694561</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B21">
         <v>20</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>9.7979589711327115</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B22">
         <v>21</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>10.04987562112089</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B23">
         <v>22</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>10.295630140987001</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B24">
         <v>23</v>
       </c>
@@ -1329,7 +1332,7 @@
         <v>10.535653752852738</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B25">
         <v>24</v>
       </c>
@@ -1357,7 +1360,7 @@
         <v>10.770329614269007</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B26">
         <v>25</v>
       </c>
@@ -1385,7 +1388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B27">
         <v>26</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>11.224972160321824</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B28">
         <v>27</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>11.445523142259598</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B29">
         <v>28</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>11.661903789690601</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B30">
         <v>29</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>11.874342087037917</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B31">
         <v>30</v>
       </c>
@@ -1525,7 +1528,7 @@
         <v>12.083045973594572</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B32">
         <v>31</v>
       </c>
@@ -1553,7 +1556,7 @@
         <v>12.288205727444508</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B33">
         <v>32</v>
       </c>
@@ -1581,7 +1584,7 @@
         <v>12.489995996796797</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B34">
         <v>33</v>
       </c>
@@ -1609,7 +1612,7 @@
         <v>12.68857754044952</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B35">
         <v>34</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>12.884098726725126</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B36">
         <v>35</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>13.076696830622021</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B37">
         <v>36</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>13.266499161421599</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B38">
         <v>37</v>
       </c>
@@ -1721,7 +1724,7 @@
         <v>13.45362404707371</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B39">
         <v>38</v>
       </c>
@@ -1749,7 +1752,7 @@
         <v>13.638181696985855</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B40">
         <v>39</v>
       </c>
@@ -1777,7 +1780,7 @@
         <v>13.820274961085254</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B41">
         <v>40</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B42">
         <v>41</v>
       </c>
@@ -1833,7 +1836,7 @@
         <v>14.177446878757825</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B43">
         <v>42</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>14.352700094407323</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B44">
         <v>43</v>
       </c>
@@ -1889,7 +1892,7 @@
         <v>14.52583904633395</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B45">
         <v>44</v>
       </c>
@@ -1917,7 +1920,7 @@
         <v>14.696938456699069</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B46">
         <v>45</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>14.866068747318506</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B47">
         <v>46</v>
       </c>
@@ -1973,7 +1976,7 @@
         <v>15.033296378372908</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B48">
         <v>47</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>15.198684153570664</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B49">
         <v>48</v>
       </c>
@@ -2029,7 +2032,7 @@
         <v>15.362291495737216</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B50">
         <v>49</v>
       </c>
@@ -2057,7 +2060,7 @@
         <v>15.524174696260024</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B51">
         <v>50</v>
       </c>
@@ -2085,7 +2088,7 @@
         <v>15.684387141358123</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B52">
         <v>51</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>15.842979517754859</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B53">
         <v>52</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B54">
         <v>53</v>
       </c>
@@ -2169,7 +2172,7 @@
         <v>16.15549442140351</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B55">
         <v>54</v>
       </c>
@@ -2197,7 +2200,7 @@
         <v>16.30950643030009</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B56">
         <v>55</v>
       </c>
@@ -2225,7 +2228,7 @@
         <v>16.46207763315433</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B57">
         <v>56</v>
       </c>
@@ -2253,7 +2256,7 @@
         <v>16.61324772583615</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B58">
         <v>57</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>16.763054614240211</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B59">
         <v>58</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>16.911534525287763</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B60">
         <v>59</v>
       </c>
@@ -2337,7 +2340,7 @@
         <v>17.058722109231979</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B61">
         <v>60</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>17.204650534085253</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B62">
         <v>61</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>17.349351572897472</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B63">
         <v>62</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>17.4928556845359</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B64">
         <v>63</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>17.635192088548397</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B65">
         <v>64</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>17.776388834631177</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B66">
         <v>65</v>
       </c>
@@ -2505,7 +2508,7 @@
         <v>17.916472867168917</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B67">
         <v>66</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>18.055470085267789</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B68">
         <v>67</v>
       </c>
@@ -2561,7 +2564,7 @@
         <v>18.193405398660254</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B69">
         <v>68</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>18.330302779823359</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B70">
         <v>69</v>
       </c>
@@ -2617,7 +2620,7 @@
         <v>18.466185312619388</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B71">
         <v>70</v>
       </c>
@@ -2645,7 +2648,7 @@
         <v>18.601075237738275</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B72">
         <v>71</v>
       </c>
@@ -2673,7 +2676,7 @@
         <v>18.734993995195193</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B73">
         <v>72</v>
       </c>
@@ -2701,7 +2704,7 @@
         <v>18.867962264113206</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B74">
         <v>73</v>
       </c>
@@ -2729,7 +2732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B75">
         <v>74</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>19.131126469708992</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B76">
         <v>75</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>19.261360284258224</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B77">
         <v>76</v>
       </c>
@@ -2813,7 +2816,7 @@
         <v>19.390719429665317</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B78">
         <v>77</v>
       </c>
@@ -2841,7 +2844,7 @@
         <v>19.519221295943137</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B79">
         <v>78</v>
       </c>
@@ -2869,7 +2872,7 @@
         <v>19.646882704388499</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B80">
         <v>79</v>
       </c>
@@ -2897,7 +2900,7 @@
         <v>19.773719933285189</v>
       </c>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B81">
         <v>80</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>19.899748742132399</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B82">
         <v>81</v>
       </c>
@@ -2953,7 +2956,7 @@
         <v>20.024984394500787</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B83">
         <v>82</v>
       </c>
@@ -2981,7 +2984,7 @@
         <v>20.149441679609886</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B84">
         <v>83</v>
       </c>
@@ -3009,7 +3012,7 @@
         <v>20.273134932713294</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B85">
         <v>84</v>
       </c>
@@ -3037,7 +3040,7 @@
         <v>20.396078054371138</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B86">
         <v>85</v>
       </c>
@@ -3065,7 +3068,7 @@
         <v>20.518284528683193</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B87">
         <v>86</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>20.639767440550294</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B88">
         <v>87</v>
       </c>
@@ -3121,7 +3124,7 @@
         <v>20.760539492026695</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B89">
         <v>88</v>
       </c>
@@ -3149,7 +3152,7 @@
         <v>20.880613017821101</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B90">
         <v>89</v>
       </c>
@@ -3177,7 +3180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B91">
         <v>90</v>
       </c>
@@ -3205,7 +3208,7 @@
         <v>21.118712081942874</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B92">
         <v>91</v>
       </c>
@@ -3233,7 +3236,7 @@
         <v>21.236760581595302</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B93">
         <v>92</v>
       </c>
@@ -3261,7 +3264,7 @@
         <v>21.354156504062622</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B94">
         <v>93</v>
       </c>
@@ -3289,7 +3292,7 @@
         <v>21.470910553583888</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B95">
         <v>94</v>
       </c>
@@ -3317,7 +3320,7 @@
         <v>21.587033144922902</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B96">
         <v>95</v>
       </c>
@@ -3345,7 +3348,7 @@
         <v>21.702534414210707</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B97">
         <v>96</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>21.817424229271428</v>
       </c>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B98">
         <v>97</v>
       </c>
@@ -3401,7 +3404,7 @@
         <v>21.931712199461309</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B99">
         <v>98</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>22.045407685048602</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B100">
         <v>99</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>22.158519806160339</v>
       </c>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B101">
         <v>100</v>
       </c>
@@ -3485,7 +3488,7 @@
         <v>22.271057451320086</v>
       </c>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B102">
         <v>101</v>
       </c>
@@ -3513,7 +3516,7 @@
         <v>22.383029285599392</v>
       </c>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B103">
         <v>102</v>
       </c>
@@ -3541,7 +3544,7 @@
         <v>22.494443758403985</v>
       </c>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B104">
         <v>103</v>
       </c>
@@ -3569,7 +3572,7 @@
         <v>22.605309110914629</v>
       </c>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B105">
         <v>104</v>
       </c>
@@ -3597,7 +3600,7 @@
         <v>22.715633383201094</v>
       </c>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B106">
         <v>105</v>
       </c>
@@ -3625,7 +3628,7 @@
         <v>22.825424421026653</v>
       </c>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B107">
         <v>106</v>
       </c>
@@ -3653,7 +3656,7 @@
         <v>22.934689882359429</v>
       </c>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B108">
         <v>107</v>
       </c>
@@ -3681,7 +3684,7 @@
         <v>23.043437243605826</v>
       </c>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B109">
         <v>108</v>
       </c>
@@ -3709,7 +3712,7 @@
         <v>23.151673805580451</v>
       </c>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B110">
         <v>109</v>
       </c>
@@ -3737,7 +3740,7 @@
         <v>23.259406699226016</v>
       </c>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B111">
         <v>110</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>23.366642891095847</v>
       </c>
     </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B112">
         <v>111</v>
       </c>
@@ -3793,7 +3796,7 @@
         <v>23.473389188611005</v>
       </c>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B113">
         <v>112</v>
       </c>
@@ -3821,7 +3824,7 @@
         <v>23.57965224510319</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B114">
         <v>113</v>
       </c>
@@ -3849,7 +3852,7 @@
         <v>23.685438564654021</v>
       </c>
     </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B115">
         <v>114</v>
       </c>
@@ -3877,7 +3880,7 @@
         <v>23.790754506740637</v>
       </c>
     </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B116">
         <v>115</v>
       </c>
@@ -3905,7 +3908,7 @@
         <v>23.895606290697042</v>
       </c>
     </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B117">
         <v>116</v>
       </c>
@@ -3933,7 +3936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B118">
         <v>117</v>
       </c>
@@ -3961,7 +3964,7 @@
         <v>24.103941586387901</v>
       </c>
     </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B119">
         <v>118</v>
       </c>
@@ -3989,7 +3992,7 @@
         <v>24.207436873820409</v>
       </c>
     </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B120">
         <v>119</v>
       </c>
@@ -4017,7 +4020,7 @@
         <v>24.310491562286437</v>
       </c>
     </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B121">
         <v>120</v>
       </c>
@@ -4045,7 +4048,7 @@
         <v>24.413111231467404</v>
       </c>
     </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B122">
         <v>121</v>
       </c>
@@ -4073,7 +4076,7 @@
         <v>24.515301344262525</v>
       </c>
     </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B123">
         <v>122</v>
       </c>
@@ -4101,7 +4104,7 @@
         <v>24.617067250182341</v>
       </c>
     </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B124">
         <v>123</v>
       </c>
@@ -4129,7 +4132,7 @@
         <v>24.718414188616549</v>
       </c>
     </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B125">
         <v>124</v>
       </c>
@@ -4157,7 +4160,7 @@
         <v>24.819347291981714</v>
       </c>
     </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B126">
         <v>125</v>
       </c>
@@ -4185,7 +4188,7 @@
         <v>24.919871588754223</v>
       </c>
     </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B127">
         <v>126</v>
       </c>
@@ -4213,7 +4216,7 @@
         <v>25.019992006393608</v>
       </c>
     </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B128">
         <v>127</v>
       </c>
@@ -4241,7 +4244,7 @@
         <v>25.119713374160941</v>
       </c>
     </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B129">
         <v>128</v>
       </c>
@@ -4269,7 +4272,7 @@
         <v>25.219040425836983</v>
       </c>
     </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B130">
         <v>129</v>
       </c>
@@ -4297,7 +4300,7 @@
         <v>25.317977802344327</v>
       </c>
     </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B131">
         <v>130</v>
       </c>
@@ -4325,7 +4328,7 @@
         <v>25.416530054277668</v>
       </c>
     </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B132">
         <v>131</v>
       </c>
@@ -4353,7 +4356,7 @@
         <v>25.514701644346147</v>
       </c>
     </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B133">
         <v>132</v>
       </c>
@@ -4381,7 +4384,7 @@
         <v>25.612496949731394</v>
       </c>
     </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B134">
         <v>133</v>
       </c>
@@ -4409,7 +4412,7 @@
         <v>25.709920264364882</v>
       </c>
     </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B135">
         <v>134</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>25.80697580112788</v>
       </c>
     </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B136">
         <v>135</v>
       </c>
@@ -4465,7 +4468,7 @@
         <v>25.903667693977237</v>
       </c>
     </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B137">
         <v>136</v>
       </c>
@@ -4493,7 +4496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B138">
         <v>137</v>
       </c>
@@ -4521,7 +4524,7 @@
         <v>26.095976701399778</v>
       </c>
     </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B139">
         <v>138</v>
       </c>
@@ -4549,7 +4552,7 @@
         <v>26.19160170741759</v>
       </c>
     </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B140">
         <v>139</v>
       </c>
@@ -4577,7 +4580,7 @@
         <v>26.28687885618983</v>
       </c>
     </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B141">
         <v>140</v>
       </c>
@@ -4605,7 +4608,7 @@
         <v>26.381811916545839</v>
       </c>
     </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B142">
         <v>141</v>
       </c>
@@ -4633,7 +4636,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B143">
         <v>142</v>
       </c>
@@ -4661,7 +4664,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B144">
         <v>143</v>
       </c>
@@ -4682,7 +4685,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B145">
         <v>144</v>
       </c>
@@ -4703,7 +4706,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B146">
         <v>145</v>
       </c>
@@ -4724,7 +4727,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B147">
         <v>146</v>
       </c>
@@ -4745,7 +4748,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B148">
         <v>147</v>
       </c>
@@ -4766,7 +4769,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B149">
         <v>148</v>
       </c>
@@ -4787,7 +4790,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B150">
         <v>149</v>
       </c>
@@ -4808,7 +4811,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B151">
         <v>150</v>
       </c>
@@ -4829,7 +4832,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B152">
         <v>151</v>
       </c>
@@ -4850,7 +4853,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B153">
         <v>152</v>
       </c>
@@ -4871,7 +4874,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B154">
         <v>153</v>
       </c>
@@ -4892,7 +4895,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B155">
         <v>154</v>
       </c>
@@ -4913,7 +4916,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B156">
         <v>155</v>
       </c>
@@ -4934,7 +4937,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B157">
         <v>156</v>
       </c>
@@ -4955,7 +4958,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B158">
         <v>157</v>
       </c>
@@ -4976,7 +4979,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B159">
         <v>158</v>
       </c>
@@ -4997,7 +5000,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B160">
         <v>159</v>
       </c>
@@ -5018,7 +5021,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B161">
         <v>160</v>
       </c>
@@ -5039,7 +5042,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B162">
         <v>161</v>
       </c>
@@ -5060,7 +5063,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B163">
         <v>162</v>
       </c>
@@ -5081,7 +5084,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B164">
         <v>163</v>
       </c>
@@ -5102,7 +5105,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B165">
         <v>164</v>
       </c>
@@ -5123,7 +5126,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B166">
         <v>165</v>
       </c>
@@ -5144,7 +5147,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B167">
         <v>166</v>
       </c>
@@ -5165,7 +5168,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B168">
         <v>167</v>
       </c>
@@ -5186,7 +5189,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B169">
         <v>168</v>
       </c>
@@ -5207,7 +5210,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B170">
         <v>169</v>
       </c>
@@ -5228,7 +5231,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B171">
         <v>170</v>
       </c>
@@ -5249,7 +5252,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B172">
         <v>171</v>
       </c>
@@ -5270,7 +5273,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B173">
         <v>172</v>
       </c>
@@ -5291,7 +5294,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B174">
         <v>173</v>
       </c>
@@ -5312,7 +5315,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B175">
         <v>174</v>
       </c>
@@ -5333,7 +5336,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B176">
         <v>175</v>
       </c>
@@ -5354,7 +5357,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B177">
         <v>176</v>
       </c>
@@ -5375,7 +5378,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B178">
         <v>177</v>
       </c>
@@ -5396,7 +5399,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B179">
         <v>178</v>
       </c>
@@ -5417,7 +5420,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B180">
         <v>179</v>
       </c>
@@ -5438,7 +5441,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B181">
         <v>180</v>
       </c>
@@ -5459,7 +5462,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B182">
         <v>181</v>
       </c>
@@ -5480,7 +5483,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B183">
         <v>182</v>
       </c>
@@ -5501,7 +5504,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B184">
         <v>183</v>
       </c>
@@ -5522,7 +5525,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B185">
         <v>184</v>
       </c>
@@ -5543,7 +5546,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B186">
         <v>185</v>
       </c>
@@ -5564,7 +5567,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B187">
         <v>186</v>
       </c>
@@ -5585,7 +5588,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B188">
         <v>187</v>
       </c>
@@ -5606,7 +5609,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B189">
         <v>188</v>
       </c>
@@ -5627,7 +5630,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B190">
         <v>189</v>
       </c>
@@ -5648,7 +5651,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B191">
         <v>190</v>
       </c>
@@ -5669,7 +5672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B192">
         <v>191</v>
       </c>
@@ -5690,7 +5693,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B193">
         <v>192</v>
       </c>
@@ -5711,7 +5714,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B194">
         <v>193</v>
       </c>
@@ -5732,7 +5735,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B195">
         <v>194</v>
       </c>
@@ -5753,7 +5756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B196">
         <v>195</v>
       </c>
@@ -5774,7 +5777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B197">
         <v>196</v>
       </c>
@@ -5795,7 +5798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B198">
         <v>197</v>
       </c>
@@ -5816,7 +5819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B199">
         <v>198</v>
       </c>
@@ -5837,7 +5840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B200">
         <v>199</v>
       </c>
@@ -5858,7 +5861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B201">
         <v>200</v>
       </c>
@@ -5879,7 +5882,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B202">
         <v>201</v>
       </c>
@@ -5900,7 +5903,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B203">
         <v>202</v>
       </c>
@@ -5921,7 +5924,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B204">
         <v>203</v>
       </c>
@@ -5942,7 +5945,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B205">
         <v>204</v>
       </c>
@@ -5963,7 +5966,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B206">
         <v>205</v>
       </c>
@@ -5984,7 +5987,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B207">
         <v>206</v>
       </c>
@@ -6005,7 +6008,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B208">
         <v>207</v>
       </c>
@@ -6026,7 +6029,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B209">
         <v>208</v>
       </c>
@@ -6047,7 +6050,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B210">
         <v>209</v>
       </c>
@@ -6068,7 +6071,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B211">
         <v>210</v>
       </c>
@@ -6089,7 +6092,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B212">
         <v>211</v>
       </c>
@@ -6110,7 +6113,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B213">
         <v>212</v>
       </c>
@@ -6131,7 +6134,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B214">
         <v>213</v>
       </c>
@@ -6152,7 +6155,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B215">
         <v>214</v>
       </c>
@@ -6173,7 +6176,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B216">
         <v>215</v>
       </c>
@@ -6194,7 +6197,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B217">
         <v>216</v>
       </c>
@@ -6215,7 +6218,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B218">
         <v>217</v>
       </c>
@@ -6236,7 +6239,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B219">
         <v>218</v>
       </c>
@@ -6257,7 +6260,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B220">
         <v>219</v>
       </c>
@@ -6278,7 +6281,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B221">
         <v>220</v>
       </c>
@@ -6299,7 +6302,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B222">
         <v>221</v>
       </c>
@@ -6320,7 +6323,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B223">
         <v>222</v>
       </c>
@@ -6341,7 +6344,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B224">
         <v>223</v>
       </c>
@@ -6362,7 +6365,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B225">
         <v>224</v>
       </c>
@@ -6383,7 +6386,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B226">
         <v>225</v>
       </c>
@@ -6404,7 +6407,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B227">
         <v>226</v>
       </c>
@@ -6425,7 +6428,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B228">
         <v>227</v>
       </c>
@@ -6446,7 +6449,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B229">
         <v>228</v>
       </c>
@@ -6467,7 +6470,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B230">
         <v>229</v>
       </c>
@@ -6488,7 +6491,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B231">
         <v>230</v>
       </c>
@@ -6509,7 +6512,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B232">
         <v>231</v>
       </c>
@@ -6530,7 +6533,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B233">
         <v>232</v>
       </c>
@@ -6551,7 +6554,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="234" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B234">
         <v>233</v>
       </c>
@@ -6572,7 +6575,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="235" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B235">
         <v>234</v>
       </c>
@@ -6593,7 +6596,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="236" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B236">
         <v>235</v>
       </c>
@@ -6614,7 +6617,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="237" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B237">
         <v>236</v>
       </c>
@@ -6635,7 +6638,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B238">
         <v>237</v>
       </c>
@@ -6656,7 +6659,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="239" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B239">
         <v>238</v>
       </c>
@@ -6677,7 +6680,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="240" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B240">
         <v>239</v>
       </c>
@@ -6698,7 +6701,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B241">
         <v>240</v>
       </c>
@@ -6719,7 +6722,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B242">
         <v>241</v>
       </c>
@@ -6740,7 +6743,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B243">
         <v>242</v>
       </c>
@@ -6761,7 +6764,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B244">
         <v>243</v>
       </c>
@@ -6782,7 +6785,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B245">
         <v>244</v>
       </c>
@@ -6803,7 +6806,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B246">
         <v>245</v>
       </c>
@@ -6824,7 +6827,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B247">
         <v>246</v>
       </c>
@@ -6845,7 +6848,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="248" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B248">
         <v>247</v>
       </c>
@@ -6866,7 +6869,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="249" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B249">
         <v>248</v>
       </c>
@@ -6887,7 +6890,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="250" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B250">
         <v>249</v>
       </c>
@@ -6908,7 +6911,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="251" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B251">
         <v>250</v>
       </c>
@@ -6929,7 +6932,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B252">
         <v>251</v>
       </c>
@@ -6950,7 +6953,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B253">
         <v>252</v>
       </c>
@@ -6971,7 +6974,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="254" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B254">
         <v>253</v>
       </c>
@@ -6992,7 +6995,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B255">
         <v>254</v>
       </c>
@@ -7013,7 +7016,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="256" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B256">
         <v>255</v>
       </c>
@@ -7034,7 +7037,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="257" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B257">
         <v>256</v>
       </c>
@@ -7055,7 +7058,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="258" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B258">
         <v>257</v>
       </c>
@@ -7076,7 +7079,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="259" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B259">
         <v>258</v>
       </c>
@@ -7097,7 +7100,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="260" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B260">
         <v>259</v>
       </c>
@@ -7118,7 +7121,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="261" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B261">
         <v>260</v>
       </c>
@@ -7139,7 +7142,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="262" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B262">
         <v>261</v>
       </c>
@@ -7160,7 +7163,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="263" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B263">
         <v>262</v>
       </c>
@@ -7181,7 +7184,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="264" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B264">
         <v>263</v>
       </c>
@@ -7202,7 +7205,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="265" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B265">
         <v>264</v>
       </c>
@@ -7223,7 +7226,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="266" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B266">
         <v>265</v>
       </c>
@@ -7244,7 +7247,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="267" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B267">
         <v>266</v>
       </c>
@@ -7265,7 +7268,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="268" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B268">
         <v>267</v>
       </c>
@@ -7286,7 +7289,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="269" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B269">
         <v>268</v>
       </c>
@@ -7307,7 +7310,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="270" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B270">
         <v>269</v>
       </c>
@@ -7328,7 +7331,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="271" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B271">
         <v>270</v>
       </c>
@@ -7349,7 +7352,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="272" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B272">
         <v>271</v>
       </c>
@@ -7370,7 +7373,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B273">
         <v>272</v>
       </c>
@@ -7391,7 +7394,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="274" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B274">
         <v>273</v>
       </c>
@@ -7412,7 +7415,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="275" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B275">
         <v>274</v>
       </c>
@@ -7433,7 +7436,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="276" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B276">
         <v>275</v>
       </c>
@@ -7454,7 +7457,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B277">
         <v>276</v>
       </c>
@@ -7475,7 +7478,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="278" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B278">
         <v>277</v>
       </c>
@@ -7496,7 +7499,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="279" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B279">
         <v>278</v>
       </c>
@@ -7517,7 +7520,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="280" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B280">
         <v>279</v>
       </c>
@@ -7538,7 +7541,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="281" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B281">
         <v>280</v>
       </c>
@@ -7559,7 +7562,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="282" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B282">
         <v>281</v>
       </c>
@@ -7580,7 +7583,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="283" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B283">
         <v>282</v>
       </c>
@@ -7601,7 +7604,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="284" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B284">
         <v>283</v>
       </c>
@@ -7622,7 +7625,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="285" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B285">
         <v>284</v>
       </c>
@@ -7643,7 +7646,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="286" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B286">
         <v>285</v>
       </c>
@@ -7664,7 +7667,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="287" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B287">
         <v>286</v>
       </c>
@@ -7685,7 +7688,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="288" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B288">
         <v>287</v>
       </c>
@@ -7706,7 +7709,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B289">
         <v>288</v>
       </c>
@@ -7727,7 +7730,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B290">
         <v>289</v>
       </c>
@@ -7748,7 +7751,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B291">
         <v>290</v>
       </c>
@@ -7769,7 +7772,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B292">
         <v>291</v>
       </c>
@@ -7790,7 +7793,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B293">
         <v>292</v>
       </c>
@@ -7811,7 +7814,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B294">
         <v>293</v>
       </c>
@@ -7832,7 +7835,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B295">
         <v>294</v>
       </c>
@@ -7853,7 +7856,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="296" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B296">
         <v>295</v>
       </c>
@@ -7874,7 +7877,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B297">
         <v>296</v>
       </c>
@@ -7895,7 +7898,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B298">
         <v>297</v>
       </c>
@@ -7916,7 +7919,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="299" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B299">
         <v>298</v>
       </c>
@@ -7937,7 +7940,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="300" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B300">
         <v>299</v>
       </c>
@@ -7958,7 +7961,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B301">
         <v>300</v>
       </c>
@@ -7979,7 +7982,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B302">
         <v>301</v>
       </c>
@@ -8000,7 +8003,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B303">
         <v>302</v>
       </c>
@@ -8021,7 +8024,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B304">
         <v>303</v>
       </c>
@@ -8042,7 +8045,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="305" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B305">
         <v>304</v>
       </c>
@@ -8063,7 +8066,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B306">
         <v>305</v>
       </c>
@@ -8084,7 +8087,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="307" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B307">
         <v>306</v>
       </c>
@@ -8105,7 +8108,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="308" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B308">
         <v>307</v>
       </c>
@@ -8126,7 +8129,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="309" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B309">
         <v>308</v>
       </c>
@@ -8147,7 +8150,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="310" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B310">
         <v>309</v>
       </c>
@@ -8168,7 +8171,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="311" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B311">
         <v>310</v>
       </c>
@@ -8189,7 +8192,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="312" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B312">
         <v>311</v>
       </c>
@@ -8210,7 +8213,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="313" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B313">
         <v>312</v>
       </c>
@@ -8231,7 +8234,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="314" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B314">
         <v>313</v>
       </c>
@@ -8252,7 +8255,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="315" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B315">
         <v>314</v>
       </c>
@@ -8273,7 +8276,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="316" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B316">
         <v>315</v>
       </c>
@@ -8294,7 +8297,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="317" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B317">
         <v>316</v>
       </c>
@@ -8315,7 +8318,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B318">
         <v>317</v>
       </c>
@@ -8336,7 +8339,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B319">
         <v>318</v>
       </c>
@@ -8357,7 +8360,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="320" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B320">
         <v>319</v>
       </c>
@@ -8378,7 +8381,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="321" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B321">
         <v>320</v>
       </c>
@@ -8399,7 +8402,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="322" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B322">
         <v>321</v>
       </c>
@@ -8420,7 +8423,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="323" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B323">
         <v>322</v>
       </c>
@@ -8441,7 +8444,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="324" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B324">
         <v>323</v>
       </c>
@@ -8462,7 +8465,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="325" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B325">
         <v>324</v>
       </c>
@@ -8483,7 +8486,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="326" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B326">
         <v>325</v>
       </c>
@@ -8504,7 +8507,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="327" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B327">
         <v>326</v>
       </c>
@@ -8525,7 +8528,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="328" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B328">
         <v>327</v>
       </c>
@@ -8546,7 +8549,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="329" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B329">
         <v>328</v>
       </c>
@@ -8567,7 +8570,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="330" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B330">
         <v>329</v>
       </c>
@@ -8588,7 +8591,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="331" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B331">
         <v>330</v>
       </c>
@@ -8609,7 +8612,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="332" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B332">
         <v>331</v>
       </c>
@@ -8630,7 +8633,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="333" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B333">
         <v>332</v>
       </c>
@@ -8651,7 +8654,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="334" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B334">
         <v>333</v>
       </c>
@@ -8672,7 +8675,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="335" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B335">
         <v>334</v>
       </c>
@@ -8693,7 +8696,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="336" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B336">
         <v>335</v>
       </c>
@@ -8714,7 +8717,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="337" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B337">
         <v>336</v>
       </c>
@@ -8735,7 +8738,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="338" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B338">
         <v>337</v>
       </c>
@@ -8756,7 +8759,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="339" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B339">
         <v>338</v>
       </c>
@@ -8777,7 +8780,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="340" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B340">
         <v>339</v>
       </c>
@@ -8798,7 +8801,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="341" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B341">
         <v>340</v>
       </c>
@@ -8819,7 +8822,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="342" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B342">
         <v>341</v>
       </c>
@@ -8840,7 +8843,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="343" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B343">
         <v>342</v>
       </c>
@@ -8861,7 +8864,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="344" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B344">
         <v>343</v>
       </c>
@@ -8882,7 +8885,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="345" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B345">
         <v>344</v>
       </c>
@@ -8903,7 +8906,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="346" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B346">
         <v>345</v>
       </c>
@@ -8924,7 +8927,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="347" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B347">
         <v>346</v>
       </c>
@@ -8945,7 +8948,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="348" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B348">
         <v>347</v>
       </c>
@@ -8966,7 +8969,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="349" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B349">
         <v>348</v>
       </c>
@@ -8987,7 +8990,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="350" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B350">
         <v>349</v>
       </c>
@@ -9008,7 +9011,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="351" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B351">
         <v>350</v>
       </c>
@@ -9029,7 +9032,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="352" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B352">
         <v>351</v>
       </c>
@@ -9050,7 +9053,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B353">
         <v>352</v>
       </c>
@@ -9071,7 +9074,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B354">
         <v>353</v>
       </c>
@@ -9092,7 +9095,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B355">
         <v>354</v>
       </c>
@@ -9113,7 +9116,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B356">
         <v>355</v>
       </c>
@@ -9134,7 +9137,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B357">
         <v>356</v>
       </c>
@@ -9155,7 +9158,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B358">
         <v>357</v>
       </c>
@@ -9176,7 +9179,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B359">
         <v>358</v>
       </c>
@@ -9197,7 +9200,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B360">
         <v>359</v>
       </c>
@@ -9218,7 +9221,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B361">
         <v>360</v>
       </c>
@@ -9239,7 +9242,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B362">
         <v>361</v>
       </c>
@@ -9260,7 +9263,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B363">
         <v>362</v>
       </c>
@@ -9281,7 +9284,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B364">
         <v>363</v>
       </c>
@@ -9302,7 +9305,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B365">
         <v>364</v>
       </c>
@@ -9323,7 +9326,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B366">
         <v>365</v>
       </c>
@@ -9344,7 +9347,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B367">
         <v>366</v>
       </c>
@@ -9365,7 +9368,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B368">
         <v>367</v>
       </c>
@@ -9386,7 +9389,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B369">
         <v>368</v>
       </c>
@@ -9407,7 +9410,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B370">
         <v>369</v>
       </c>
@@ -9428,7 +9431,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B371">
         <v>370</v>
       </c>
@@ -9449,7 +9452,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B372">
         <v>371</v>
       </c>
@@ -9470,7 +9473,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B373">
         <v>372</v>
       </c>
@@ -9491,7 +9494,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B374">
         <v>373</v>
       </c>
@@ -9512,7 +9515,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B375">
         <v>374</v>
       </c>
@@ -9533,7 +9536,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B376">
         <v>375</v>
       </c>
@@ -9554,7 +9557,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B377">
         <v>376</v>
       </c>
@@ -9575,7 +9578,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B378">
         <v>377</v>
       </c>
@@ -9596,7 +9599,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B379">
         <v>378</v>
       </c>
@@ -9617,7 +9620,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B380">
         <v>379</v>
       </c>
@@ -9638,7 +9641,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B381">
         <v>380</v>
       </c>
@@ -9659,7 +9662,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B382">
         <v>381</v>
       </c>
@@ -9680,7 +9683,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B383">
         <v>382</v>
       </c>
@@ -9701,7 +9704,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B384">
         <v>383</v>
       </c>
@@ -9722,7 +9725,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="385" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B385">
         <v>384</v>
       </c>
@@ -9743,7 +9746,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="386" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B386">
         <v>385</v>
       </c>
@@ -9764,7 +9767,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B387">
         <v>386</v>
       </c>
@@ -9785,7 +9788,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="388" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B388">
         <v>387</v>
       </c>
@@ -9806,7 +9809,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="389" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B389">
         <v>388</v>
       </c>
@@ -9827,7 +9830,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B390">
         <v>389</v>
       </c>
@@ -9848,7 +9851,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B391">
         <v>390</v>
       </c>
@@ -9869,7 +9872,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B392">
         <v>391</v>
       </c>
@@ -9890,7 +9893,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B393">
         <v>392</v>
       </c>
@@ -9911,7 +9914,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B394">
         <v>393</v>
       </c>
@@ -9932,7 +9935,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B395">
         <v>394</v>
       </c>
@@ -9953,7 +9956,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B396">
         <v>395</v>
       </c>
@@ -9974,7 +9977,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B397">
         <v>396</v>
       </c>
@@ -9995,7 +9998,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B398">
         <v>397</v>
       </c>
@@ -10016,7 +10019,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B399">
         <v>398</v>
       </c>
@@ -10037,7 +10040,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B400">
         <v>399</v>
       </c>
@@ -10058,7 +10061,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="401" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B401">
         <v>400</v>
       </c>
@@ -10079,7 +10082,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="402" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B402">
         <v>401</v>
       </c>
@@ -10100,7 +10103,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="403" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B403">
         <v>402</v>
       </c>
@@ -10121,7 +10124,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="404" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B404">
         <v>403</v>
       </c>
@@ -10142,7 +10145,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="405" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B405">
         <v>404</v>
       </c>
@@ -10163,7 +10166,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="406" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B406">
         <v>405</v>
       </c>
@@ -10184,7 +10187,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="407" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B407">
         <v>406</v>
       </c>
@@ -10205,7 +10208,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="408" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B408">
         <v>407</v>
       </c>
@@ -10226,7 +10229,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="409" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B409">
         <v>408</v>
       </c>
@@ -10247,7 +10250,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="410" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B410">
         <v>409</v>
       </c>
@@ -10268,7 +10271,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="411" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B411">
         <v>410</v>
       </c>
@@ -10289,7 +10292,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="412" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B412">
         <v>411</v>
       </c>
@@ -10310,7 +10313,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="413" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B413">
         <v>412</v>
       </c>
@@ -10331,7 +10334,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="414" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B414">
         <v>413</v>
       </c>
@@ -10352,7 +10355,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="415" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B415">
         <v>414</v>
       </c>
@@ -10373,7 +10376,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="416" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B416">
         <v>415</v>
       </c>
@@ -10394,7 +10397,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="417" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B417">
         <v>416</v>
       </c>
@@ -10415,7 +10418,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="418" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B418">
         <v>417</v>
       </c>
@@ -10436,7 +10439,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="419" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B419">
         <v>418</v>
       </c>
@@ -10457,7 +10460,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="420" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B420">
         <v>419</v>
       </c>
@@ -10478,7 +10481,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="421" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B421">
         <v>420</v>
       </c>
@@ -10499,7 +10502,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="422" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B422">
         <v>421</v>
       </c>
@@ -10520,7 +10523,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="423" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B423">
         <v>422</v>
       </c>
@@ -10541,7 +10544,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="424" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B424">
         <v>423</v>
       </c>
@@ -10562,7 +10565,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="425" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B425">
         <v>424</v>
       </c>
@@ -10583,7 +10586,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="426" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B426">
         <v>425</v>
       </c>
@@ -10604,7 +10607,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="427" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B427">
         <v>426</v>
       </c>
@@ -10625,7 +10628,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="428" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B428">
         <v>427</v>
       </c>
@@ -10646,7 +10649,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="429" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B429">
         <v>428</v>
       </c>
@@ -10667,7 +10670,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="430" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B430">
         <v>429</v>
       </c>
@@ -10688,7 +10691,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="431" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="431" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B431">
         <v>430</v>
       </c>
@@ -10709,7 +10712,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="432" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="432" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B432">
         <v>431</v>
       </c>
@@ -10730,7 +10733,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="433" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B433">
         <v>432</v>
       </c>
@@ -10751,7 +10754,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="434" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B434">
         <v>433</v>
       </c>
@@ -10772,7 +10775,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="435" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="435" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B435">
         <v>434</v>
       </c>
@@ -10793,7 +10796,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="436" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="436" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B436">
         <v>435</v>
       </c>
@@ -10814,7 +10817,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="437" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="437" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B437">
         <v>436</v>
       </c>
@@ -10835,7 +10838,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="438" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="438" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B438">
         <v>437</v>
       </c>
@@ -10856,7 +10859,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="439" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="439" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B439">
         <v>438</v>
       </c>
@@ -10877,7 +10880,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="440" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="440" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B440">
         <v>439</v>
       </c>
@@ -10898,7 +10901,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="441" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="441" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B441">
         <v>440</v>
       </c>
@@ -10919,7 +10922,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="442" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="442" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B442">
         <v>441</v>
       </c>
@@ -10940,7 +10943,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="443" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="443" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B443">
         <v>442</v>
       </c>
@@ -10961,7 +10964,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="444" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="444" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B444">
         <v>443</v>
       </c>
@@ -10982,7 +10985,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="445" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="445" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B445">
         <v>444</v>
       </c>
@@ -11003,7 +11006,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="446" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="446" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B446">
         <v>445</v>
       </c>
@@ -11024,7 +11027,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="447" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="447" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B447">
         <v>446</v>
       </c>
@@ -11045,7 +11048,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="448" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="448" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B448">
         <v>447</v>
       </c>
@@ -11066,7 +11069,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="449" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="449" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B449">
         <v>448</v>
       </c>
@@ -11087,7 +11090,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="450" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="450" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B450">
         <v>449</v>
       </c>
@@ -11108,7 +11111,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="451" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="451" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B451">
         <v>450</v>
       </c>
@@ -11129,7 +11132,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="452" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="452" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B452">
         <v>451</v>
       </c>
@@ -11150,7 +11153,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="453" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="453" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B453">
         <v>452</v>
       </c>
@@ -11171,7 +11174,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="454" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="454" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B454">
         <v>453</v>
       </c>
@@ -11192,7 +11195,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="455" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="455" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B455">
         <v>454</v>
       </c>
@@ -11213,7 +11216,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="456" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="456" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B456">
         <v>455</v>
       </c>
@@ -11234,7 +11237,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="457" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="457" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B457">
         <v>456</v>
       </c>
@@ -11255,7 +11258,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="458" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="458" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B458">
         <v>457</v>
       </c>
@@ -11276,7 +11279,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="459" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="459" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B459">
         <v>458</v>
       </c>
@@ -11297,7 +11300,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="460" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="460" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B460">
         <v>459</v>
       </c>
@@ -11318,7 +11321,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="461" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="461" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B461">
         <v>460</v>
       </c>
@@ -11339,7 +11342,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="462" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="462" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B462">
         <v>461</v>
       </c>
@@ -11360,7 +11363,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="463" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="463" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B463">
         <v>462</v>
       </c>
@@ -11381,7 +11384,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="464" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="464" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B464">
         <v>463</v>
       </c>
@@ -11402,7 +11405,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="465" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="465" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B465">
         <v>464</v>
       </c>
@@ -11423,7 +11426,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="466" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="466" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B466">
         <v>465</v>
       </c>
@@ -11444,7 +11447,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="467" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="467" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B467">
         <v>466</v>
       </c>
@@ -11465,7 +11468,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="468" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="468" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B468">
         <v>467</v>
       </c>
@@ -11486,7 +11489,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="469" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="469" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B469">
         <v>468</v>
       </c>
@@ -11507,7 +11510,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="470" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="470" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B470">
         <v>469</v>
       </c>
@@ -11528,7 +11531,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="471" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="471" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B471">
         <v>470</v>
       </c>
@@ -11549,7 +11552,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="472" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="472" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B472">
         <v>471</v>
       </c>
@@ -11570,7 +11573,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="473" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="473" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B473">
         <v>472</v>
       </c>
@@ -11591,7 +11594,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="474" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="474" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B474">
         <v>473</v>
       </c>
@@ -11612,7 +11615,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="475" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="475" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B475">
         <v>474</v>
       </c>
@@ -11633,7 +11636,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="476" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="476" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B476">
         <v>475</v>
       </c>
@@ -11654,7 +11657,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="477" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="477" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B477">
         <v>476</v>
       </c>
@@ -11675,7 +11678,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="478" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="478" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B478">
         <v>477</v>
       </c>
@@ -11696,7 +11699,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="479" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="479" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B479">
         <v>478</v>
       </c>
@@ -11717,7 +11720,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="480" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="480" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B480">
         <v>479</v>
       </c>
@@ -11738,7 +11741,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="481" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="481" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B481">
         <v>480</v>
       </c>
@@ -11759,7 +11762,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="482" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="482" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B482">
         <v>481</v>
       </c>
@@ -11780,7 +11783,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="483" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="483" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B483">
         <v>482</v>
       </c>
@@ -11801,7 +11804,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="484" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="484" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B484">
         <v>483</v>
       </c>
@@ -11822,7 +11825,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="485" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="485" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B485">
         <v>484</v>
       </c>
@@ -11843,7 +11846,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="486" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="486" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B486">
         <v>485</v>
       </c>
@@ -11864,7 +11867,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="487" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="487" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B487">
         <v>486</v>
       </c>
@@ -11885,7 +11888,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="488" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="488" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B488">
         <v>487</v>
       </c>
@@ -11906,7 +11909,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="489" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="489" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B489">
         <v>488</v>
       </c>
@@ -11927,7 +11930,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="490" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="490" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B490">
         <v>489</v>
       </c>
@@ -11948,7 +11951,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="491" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="491" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B491">
         <v>490</v>
       </c>
@@ -11969,7 +11972,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="492" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="492" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B492">
         <v>491</v>
       </c>
@@ -11990,7 +11993,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="493" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="493" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B493">
         <v>492</v>
       </c>
@@ -12011,7 +12014,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="494" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="494" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B494">
         <v>493</v>
       </c>
@@ -12032,7 +12035,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="495" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="495" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B495">
         <v>494</v>
       </c>
@@ -12053,7 +12056,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="496" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="496" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B496">
         <v>495</v>
       </c>
@@ -12074,7 +12077,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="497" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="497" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B497">
         <v>496</v>
       </c>
@@ -12095,7 +12098,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="498" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="498" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B498">
         <v>497</v>
       </c>
@@ -12116,7 +12119,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="499" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="499" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B499">
         <v>498</v>
       </c>
@@ -12137,7 +12140,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="500" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="500" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B500">
         <v>499</v>
       </c>
@@ -12158,7 +12161,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="501" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="501" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B501">
         <v>500</v>
       </c>
@@ -12179,7 +12182,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="502" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="502" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B502">
         <v>501</v>
       </c>
@@ -12200,7 +12203,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="503" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="503" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B503">
         <v>502</v>
       </c>
@@ -12221,7 +12224,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="504" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="504" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B504">
         <v>503</v>
       </c>
@@ -12242,7 +12245,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="505" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="505" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B505">
         <v>504</v>
       </c>
@@ -12263,7 +12266,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="506" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="506" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B506">
         <v>505</v>
       </c>
@@ -12284,7 +12287,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="507" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="507" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B507">
         <v>506</v>
       </c>
@@ -12305,7 +12308,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="508" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="508" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B508">
         <v>507</v>
       </c>
@@ -12326,7 +12329,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="509" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="509" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B509">
         <v>508</v>
       </c>
@@ -12347,7 +12350,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="510" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="510" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B510">
         <v>509</v>
       </c>
@@ -12368,7 +12371,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="511" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="511" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B511">
         <v>510</v>
       </c>
@@ -12389,7 +12392,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="512" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="512" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B512">
         <v>511</v>
       </c>
@@ -12410,7 +12413,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="513" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="513" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B513">
         <v>512</v>
       </c>
@@ -12431,7 +12434,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="514" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="514" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B514">
         <v>513</v>
       </c>
@@ -12452,7 +12455,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="515" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="515" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B515">
         <v>514</v>
       </c>
@@ -12473,7 +12476,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="516" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="516" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B516">
         <v>515</v>
       </c>
@@ -12494,7 +12497,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="517" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="517" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B517">
         <v>516</v>
       </c>
@@ -12515,7 +12518,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="518" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="518" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B518">
         <v>517</v>
       </c>
@@ -12536,7 +12539,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="519" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="519" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B519">
         <v>518</v>
       </c>
@@ -12557,7 +12560,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="520" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="520" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B520">
         <v>519</v>
       </c>
@@ -12578,7 +12581,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="521" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="521" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B521">
         <v>520</v>
       </c>
@@ -12599,7 +12602,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="522" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="522" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B522">
         <v>521</v>
       </c>
@@ -12620,7 +12623,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="523" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="523" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B523">
         <v>522</v>
       </c>
@@ -12641,7 +12644,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="524" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="524" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B524">
         <v>523</v>
       </c>
@@ -12662,7 +12665,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="525" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="525" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B525">
         <v>524</v>
       </c>
@@ -12683,7 +12686,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="526" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="526" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B526">
         <v>525</v>
       </c>
@@ -12704,7 +12707,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="527" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="527" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B527">
         <v>526</v>
       </c>
@@ -12725,7 +12728,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="528" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="528" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B528">
         <v>527</v>
       </c>
@@ -12746,7 +12749,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="529" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="529" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B529">
         <v>528</v>
       </c>
@@ -12767,7 +12770,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="530" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="530" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B530">
         <v>529</v>
       </c>
@@ -12788,7 +12791,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="531" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="531" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B531">
         <v>530</v>
       </c>
@@ -12809,7 +12812,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="532" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="532" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B532">
         <v>531</v>
       </c>
@@ -12830,7 +12833,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="533" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="533" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B533">
         <v>532</v>
       </c>
@@ -12851,7 +12854,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="534" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="534" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B534">
         <v>533</v>
       </c>
@@ -12872,7 +12875,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="535" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="535" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B535">
         <v>534</v>
       </c>
@@ -12893,7 +12896,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="536" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="536" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B536">
         <v>535</v>
       </c>
@@ -12914,7 +12917,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="537" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="537" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B537">
         <v>536</v>
       </c>
@@ -12935,7 +12938,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="538" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="538" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B538">
         <v>537</v>
       </c>
@@ -12956,7 +12959,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="539" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="539" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B539">
         <v>538</v>
       </c>
@@ -12977,7 +12980,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="540" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="540" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B540">
         <v>539</v>
       </c>
@@ -12998,7 +13001,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="541" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="541" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B541">
         <v>540</v>
       </c>
@@ -13019,7 +13022,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="542" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="542" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B542">
         <v>541</v>
       </c>
@@ -13040,7 +13043,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="543" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="543" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B543">
         <v>542</v>
       </c>
@@ -13061,7 +13064,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="544" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="544" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B544">
         <v>543</v>
       </c>
@@ -13082,7 +13085,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="545" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="545" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B545">
         <v>544</v>
       </c>
@@ -13103,7 +13106,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="546" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="546" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B546">
         <v>545</v>
       </c>
@@ -13124,7 +13127,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="547" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="547" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B547">
         <v>546</v>
       </c>
@@ -13145,7 +13148,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="548" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="548" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B548">
         <v>547</v>
       </c>
@@ -13166,7 +13169,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="549" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="549" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B549">
         <v>548</v>
       </c>
@@ -13187,7 +13190,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="550" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="550" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B550">
         <v>549</v>
       </c>
@@ -13208,7 +13211,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="551" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="551" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B551">
         <v>550</v>
       </c>
@@ -13229,7 +13232,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="552" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="552" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B552">
         <v>551</v>
       </c>
@@ -13250,7 +13253,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="553" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="553" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B553">
         <v>552</v>
       </c>
@@ -13271,7 +13274,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="554" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="554" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B554">
         <v>553</v>
       </c>
@@ -13292,7 +13295,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="555" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="555" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B555">
         <v>554</v>
       </c>
@@ -13313,7 +13316,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="556" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="556" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B556">
         <v>555</v>
       </c>
@@ -13334,7 +13337,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="557" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="557" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B557">
         <v>556</v>
       </c>
@@ -13355,7 +13358,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="558" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="558" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B558">
         <v>557</v>
       </c>
@@ -13376,7 +13379,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="559" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="559" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B559">
         <v>558</v>
       </c>
@@ -13397,7 +13400,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="560" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="560" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B560">
         <v>559</v>
       </c>
@@ -13418,7 +13421,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="561" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="561" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B561">
         <v>560</v>
       </c>
@@ -13439,7 +13442,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="562" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="562" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B562">
         <v>561</v>
       </c>
@@ -13460,7 +13463,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="563" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="563" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B563">
         <v>562</v>
       </c>
@@ -13481,7 +13484,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="564" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="564" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B564">
         <v>563</v>
       </c>
@@ -13502,7 +13505,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="565" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="565" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B565">
         <v>564</v>
       </c>
@@ -13523,7 +13526,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="566" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="566" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B566">
         <v>565</v>
       </c>
@@ -13544,7 +13547,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="567" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="567" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B567">
         <v>566</v>
       </c>
@@ -13565,7 +13568,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="568" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="568" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B568">
         <v>567</v>
       </c>
@@ -13586,7 +13589,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="569" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="569" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B569">
         <v>568</v>
       </c>
@@ -13607,7 +13610,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="570" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="570" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B570">
         <v>569</v>
       </c>
@@ -13628,7 +13631,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="571" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="571" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B571">
         <v>570</v>
       </c>
@@ -13649,7 +13652,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="572" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="572" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B572">
         <v>571</v>
       </c>
@@ -13670,7 +13673,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="573" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="573" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B573">
         <v>572</v>
       </c>
@@ -13691,7 +13694,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="574" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="574" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B574">
         <v>573</v>
       </c>
@@ -13712,7 +13715,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="575" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="575" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B575">
         <v>574</v>
       </c>
@@ -13733,7 +13736,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="576" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="576" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B576">
         <v>575</v>
       </c>
@@ -13754,7 +13757,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="577" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="577" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B577">
         <v>576</v>
       </c>
@@ -13775,7 +13778,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="578" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="578" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B578">
         <v>577</v>
       </c>
@@ -13796,7 +13799,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="579" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="579" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B579">
         <v>578</v>
       </c>
@@ -13817,7 +13820,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="580" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="580" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B580">
         <v>579</v>
       </c>
@@ -13838,7 +13841,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="581" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="581" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B581">
         <v>580</v>
       </c>
@@ -13859,7 +13862,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="582" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="582" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B582">
         <v>581</v>
       </c>
@@ -13880,7 +13883,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="583" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="583" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B583">
         <v>582</v>
       </c>
@@ -13901,7 +13904,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="584" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="584" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B584">
         <v>583</v>
       </c>
@@ -13922,7 +13925,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="585" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="585" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B585">
         <v>584</v>
       </c>
@@ -13943,7 +13946,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="586" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="586" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B586">
         <v>585</v>
       </c>
@@ -13964,7 +13967,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="587" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="587" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B587">
         <v>586</v>
       </c>
@@ -13985,7 +13988,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="588" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="588" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B588">
         <v>587</v>
       </c>
@@ -14006,7 +14009,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="589" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="589" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B589">
         <v>588</v>
       </c>
@@ -14027,7 +14030,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="590" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="590" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B590">
         <v>589</v>
       </c>
@@ -14048,7 +14051,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="591" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="591" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B591">
         <v>590</v>
       </c>
@@ -14069,7 +14072,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="592" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="592" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B592">
         <v>591</v>
       </c>
@@ -14090,7 +14093,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="593" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="593" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B593">
         <v>592</v>
       </c>
@@ -14111,7 +14114,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="594" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="594" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B594">
         <v>593</v>
       </c>
@@ -14132,7 +14135,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="595" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="595" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B595">
         <v>594</v>
       </c>
@@ -14153,7 +14156,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="596" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="596" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B596">
         <v>595</v>
       </c>
@@ -14174,7 +14177,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="597" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="597" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B597">
         <v>596</v>
       </c>
@@ -14195,7 +14198,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="598" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="598" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B598">
         <v>597</v>
       </c>
@@ -14216,7 +14219,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="599" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="599" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B599">
         <v>598</v>
       </c>
@@ -14237,7 +14240,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="600" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="600" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B600">
         <v>599</v>
       </c>
@@ -14258,7 +14261,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="601" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="601" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B601">
         <v>600</v>
       </c>
@@ -14279,7 +14282,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="602" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="602" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B602">
         <v>601</v>
       </c>
@@ -14300,7 +14303,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="603" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="603" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B603">
         <v>602</v>
       </c>
@@ -14321,7 +14324,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="604" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="604" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B604">
         <v>603</v>
       </c>
@@ -14342,7 +14345,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="605" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="605" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B605">
         <v>604</v>
       </c>
@@ -14363,7 +14366,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="606" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="606" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B606">
         <v>605</v>
       </c>
@@ -14384,7 +14387,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="607" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="607" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B607">
         <v>606</v>
       </c>
@@ -14405,7 +14408,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="608" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="608" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B608">
         <v>607</v>
       </c>
@@ -14426,7 +14429,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="609" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="609" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B609">
         <v>608</v>
       </c>
@@ -14447,7 +14450,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="610" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="610" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B610">
         <v>609</v>
       </c>
@@ -14468,7 +14471,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="611" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="611" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B611">
         <v>610</v>
       </c>
@@ -14489,7 +14492,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="612" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="612" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B612">
         <v>611</v>
       </c>
@@ -14510,7 +14513,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="613" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="613" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B613">
         <v>612</v>
       </c>
@@ -14531,7 +14534,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="614" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="614" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B614">
         <v>613</v>
       </c>
@@ -14552,7 +14555,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="615" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="615" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B615">
         <v>614</v>
       </c>
@@ -14573,7 +14576,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="616" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="616" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B616">
         <v>615</v>
       </c>
@@ -14594,7 +14597,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="617" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="617" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B617">
         <v>616</v>
       </c>
@@ -14615,7 +14618,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="618" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="618" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B618">
         <v>617</v>
       </c>
@@ -14636,7 +14639,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="619" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="619" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B619">
         <v>618</v>
       </c>
@@ -14657,7 +14660,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="620" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="620" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B620">
         <v>619</v>
       </c>
@@ -14678,7 +14681,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="621" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="621" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B621">
         <v>620</v>
       </c>
@@ -14699,7 +14702,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="622" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="622" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B622">
         <v>621</v>
       </c>
@@ -14720,7 +14723,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="623" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="623" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B623">
         <v>622</v>
       </c>
@@ -14741,7 +14744,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="624" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="624" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B624">
         <v>623</v>
       </c>
@@ -14762,7 +14765,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="625" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="625" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B625">
         <v>624</v>
       </c>
@@ -14783,7 +14786,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="626" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="626" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B626">
         <v>625</v>
       </c>
@@ -14804,7 +14807,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="627" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="627" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B627">
         <v>626</v>
       </c>
@@ -14825,7 +14828,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="628" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="628" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B628">
         <v>627</v>
       </c>
@@ -14846,7 +14849,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="629" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="629" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B629">
         <v>628</v>
       </c>
@@ -14867,7 +14870,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="630" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="630" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B630">
         <v>629</v>
       </c>
@@ -14888,7 +14891,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="631" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="631" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B631">
         <v>630</v>
       </c>
@@ -14909,7 +14912,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="632" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="632" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B632">
         <v>631</v>
       </c>
@@ -14930,7 +14933,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="633" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="633" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B633">
         <v>632</v>
       </c>
@@ -14951,7 +14954,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="634" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="634" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B634">
         <v>633</v>
       </c>
@@ -14972,7 +14975,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="635" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="635" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B635">
         <v>634</v>
       </c>
@@ -14993,7 +14996,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="636" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="636" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B636">
         <v>635</v>
       </c>
@@ -15014,7 +15017,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="637" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="637" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B637">
         <v>636</v>
       </c>
@@ -15035,7 +15038,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="638" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="638" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B638">
         <v>637</v>
       </c>
@@ -15056,7 +15059,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="639" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="639" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B639">
         <v>638</v>
       </c>
@@ -15077,7 +15080,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="640" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="640" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B640">
         <v>639</v>
       </c>
@@ -15098,7 +15101,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="641" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="641" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B641">
         <v>640</v>
       </c>
@@ -15119,7 +15122,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="642" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="642" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B642">
         <v>641</v>
       </c>
@@ -15140,7 +15143,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="643" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="643" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B643">
         <v>642</v>
       </c>
@@ -15161,7 +15164,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="644" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="644" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B644">
         <v>643</v>
       </c>
@@ -15182,7 +15185,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="645" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="645" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B645">
         <v>644</v>
       </c>
@@ -15203,7 +15206,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="646" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="646" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B646">
         <v>645</v>
       </c>
@@ -15224,7 +15227,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="647" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="647" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B647">
         <v>646</v>
       </c>
@@ -15245,7 +15248,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="648" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="648" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B648">
         <v>647</v>
       </c>
@@ -15266,7 +15269,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="649" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="649" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B649">
         <v>648</v>
       </c>
@@ -15287,7 +15290,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="650" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="650" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B650">
         <v>649</v>
       </c>
@@ -15308,7 +15311,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="651" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="651" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B651">
         <v>650</v>
       </c>
@@ -15329,7 +15332,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="652" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="652" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B652">
         <v>651</v>
       </c>
@@ -15350,7 +15353,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="653" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="653" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B653">
         <v>652</v>
       </c>
@@ -15371,7 +15374,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="654" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="654" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B654">
         <v>653</v>
       </c>
@@ -15392,7 +15395,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="655" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="655" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B655">
         <v>654</v>
       </c>
@@ -15413,7 +15416,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="656" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="656" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B656">
         <v>655</v>
       </c>
@@ -15434,7 +15437,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="657" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="657" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B657">
         <v>656</v>
       </c>
@@ -15455,7 +15458,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="658" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="658" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B658">
         <v>657</v>
       </c>
@@ -15476,7 +15479,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="659" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="659" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B659">
         <v>658</v>
       </c>
@@ -15497,7 +15500,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="660" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="660" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B660">
         <v>659</v>
       </c>
@@ -15518,7 +15521,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="661" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="661" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B661">
         <v>660</v>
       </c>
@@ -15539,7 +15542,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="662" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="662" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B662">
         <v>661</v>
       </c>
@@ -15560,7 +15563,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="663" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="663" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B663">
         <v>662</v>
       </c>
@@ -15581,7 +15584,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="664" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="664" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B664">
         <v>663</v>
       </c>
@@ -15602,7 +15605,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="665" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="665" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B665">
         <v>664</v>
       </c>
@@ -15623,7 +15626,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="666" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="666" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B666">
         <v>665</v>
       </c>
@@ -15644,7 +15647,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="667" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="667" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B667">
         <v>666</v>
       </c>
@@ -15665,7 +15668,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="668" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="668" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B668">
         <v>667</v>
       </c>
@@ -15686,7 +15689,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="669" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="669" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B669">
         <v>668</v>
       </c>
@@ -15707,7 +15710,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="670" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="670" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B670">
         <v>669</v>
       </c>
@@ -15728,7 +15731,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="671" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="671" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B671">
         <v>670</v>
       </c>
@@ -15749,7 +15752,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="672" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="672" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B672">
         <v>671</v>
       </c>
@@ -15770,7 +15773,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="673" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="673" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B673">
         <v>672</v>
       </c>
@@ -15791,7 +15794,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="674" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="674" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B674">
         <v>673</v>
       </c>
@@ -15812,7 +15815,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="675" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="675" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B675">
         <v>674</v>
       </c>
@@ -15833,7 +15836,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="676" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="676" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B676">
         <v>675</v>
       </c>
@@ -15854,7 +15857,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="677" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="677" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B677">
         <v>676</v>
       </c>
@@ -15875,7 +15878,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="678" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="678" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B678">
         <v>677</v>
       </c>
@@ -15896,7 +15899,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="679" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="679" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B679">
         <v>678</v>
       </c>
@@ -15917,7 +15920,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="680" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="680" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B680">
         <v>679</v>
       </c>
@@ -15938,7 +15941,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="681" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="681" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B681">
         <v>680</v>
       </c>
@@ -15959,7 +15962,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="682" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="682" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B682">
         <v>681</v>
       </c>
@@ -15980,7 +15983,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="683" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="683" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B683">
         <v>682</v>
       </c>
@@ -16001,7 +16004,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="684" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="684" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B684">
         <v>683</v>
       </c>
@@ -16022,7 +16025,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="685" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="685" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B685">
         <v>684</v>
       </c>
@@ -16043,7 +16046,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="686" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="686" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B686">
         <v>685</v>
       </c>
@@ -16064,7 +16067,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="687" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="687" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B687">
         <v>686</v>
       </c>
@@ -16085,7 +16088,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="688" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="688" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B688">
         <v>687</v>
       </c>
@@ -16106,7 +16109,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="689" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="689" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B689">
         <v>688</v>
       </c>
@@ -16127,7 +16130,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="690" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="690" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B690">
         <v>689</v>
       </c>
@@ -16148,7 +16151,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="691" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="691" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B691">
         <v>690</v>
       </c>
@@ -16169,7 +16172,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="692" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="692" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B692">
         <v>691</v>
       </c>
@@ -16190,7 +16193,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="693" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="693" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B693">
         <v>692</v>
       </c>
@@ -16211,7 +16214,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="694" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="694" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B694">
         <v>693</v>
       </c>
@@ -16232,7 +16235,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="695" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="695" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B695">
         <v>694</v>
       </c>
@@ -16253,7 +16256,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="696" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="696" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B696">
         <v>695</v>
       </c>
@@ -16274,7 +16277,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="697" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="697" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B697">
         <v>696</v>
       </c>
@@ -16295,7 +16298,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="698" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="698" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B698">
         <v>697</v>
       </c>
@@ -16316,7 +16319,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="699" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="699" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B699">
         <v>698</v>
       </c>
@@ -16337,7 +16340,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="700" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="700" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B700">
         <v>699</v>
       </c>
@@ -16358,7 +16361,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="701" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="701" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B701">
         <v>700</v>
       </c>
@@ -16379,7 +16382,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="702" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="702" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B702">
         <v>701</v>
       </c>
@@ -16400,7 +16403,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="703" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="703" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B703">
         <v>702</v>
       </c>
@@ -16421,7 +16424,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="704" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="704" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B704">
         <v>703</v>
       </c>
@@ -16442,7 +16445,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="705" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="705" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B705">
         <v>704</v>
       </c>
@@ -16463,7 +16466,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="706" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="706" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B706">
         <v>705</v>
       </c>
@@ -16484,7 +16487,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="707" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="707" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B707">
         <v>706</v>
       </c>
@@ -16505,7 +16508,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="708" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="708" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B708">
         <v>707</v>
       </c>
@@ -16526,7 +16529,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="709" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="709" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B709">
         <v>708</v>
       </c>
@@ -16547,7 +16550,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="710" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="710" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B710">
         <v>709</v>
       </c>
@@ -16568,7 +16571,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="711" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="711" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B711">
         <v>710</v>
       </c>
@@ -16589,7 +16592,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="712" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="712" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B712">
         <v>711</v>
       </c>
@@ -16610,7 +16613,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="713" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="713" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B713">
         <v>712</v>
       </c>
@@ -16631,7 +16634,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="714" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="714" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B714">
         <v>713</v>
       </c>
@@ -16652,7 +16655,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="715" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="715" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B715">
         <v>714</v>
       </c>
@@ -16673,7 +16676,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="716" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="716" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B716">
         <v>715</v>
       </c>
@@ -16694,7 +16697,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="717" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="717" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B717">
         <v>716</v>
       </c>
@@ -16715,7 +16718,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="718" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="718" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B718">
         <v>717</v>
       </c>
@@ -16736,7 +16739,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="719" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="719" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B719">
         <v>718</v>
       </c>
@@ -16757,7 +16760,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="720" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="720" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B720">
         <v>719</v>
       </c>
@@ -16778,7 +16781,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="721" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="721" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B721">
         <v>720</v>
       </c>
@@ -16799,7 +16802,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="722" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="722" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B722">
         <v>721</v>
       </c>
@@ -16820,7 +16823,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="723" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="723" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B723">
         <v>722</v>
       </c>
@@ -16841,7 +16844,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="724" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="724" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B724">
         <v>723</v>
       </c>
@@ -16862,7 +16865,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="725" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="725" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B725">
         <v>724</v>
       </c>
@@ -16883,7 +16886,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="726" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="726" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B726">
         <v>725</v>
       </c>
@@ -16904,7 +16907,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="727" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="727" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B727">
         <v>726</v>
       </c>
@@ -16925,7 +16928,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="728" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="728" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B728">
         <v>727</v>
       </c>
@@ -16946,7 +16949,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="729" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="729" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B729">
         <v>728</v>
       </c>
@@ -16967,7 +16970,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="730" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="730" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B730">
         <v>729</v>
       </c>
@@ -16988,7 +16991,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="731" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="731" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B731">
         <v>730</v>
       </c>
@@ -17009,7 +17012,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="732" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="732" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B732">
         <v>731</v>
       </c>
@@ -17030,7 +17033,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="733" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="733" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B733">
         <v>732</v>
       </c>
@@ -17051,7 +17054,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="734" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="734" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B734">
         <v>733</v>
       </c>
@@ -17072,7 +17075,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="735" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="735" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B735">
         <v>734</v>
       </c>
@@ -17093,7 +17096,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="736" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="736" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B736">
         <v>735</v>
       </c>
@@ -17114,7 +17117,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="737" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="737" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B737">
         <v>736</v>
       </c>
@@ -17135,7 +17138,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="738" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="738" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B738">
         <v>737</v>
       </c>
@@ -17156,7 +17159,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="739" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="739" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B739">
         <v>738</v>
       </c>
@@ -17177,7 +17180,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="740" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="740" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B740">
         <v>739</v>
       </c>
@@ -17198,7 +17201,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="741" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="741" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B741">
         <v>740</v>
       </c>
@@ -17219,7 +17222,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="742" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="742" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B742">
         <v>741</v>
       </c>
@@ -17240,7 +17243,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="743" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="743" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B743">
         <v>742</v>
       </c>
@@ -17261,7 +17264,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="744" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="744" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B744">
         <v>743</v>
       </c>
@@ -17282,7 +17285,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="745" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="745" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B745">
         <v>744</v>
       </c>
@@ -17303,7 +17306,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="746" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="746" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B746">
         <v>745</v>
       </c>
@@ -17324,7 +17327,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="747" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="747" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B747">
         <v>746</v>
       </c>
@@ -17345,7 +17348,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="748" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="748" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B748">
         <v>747</v>
       </c>
@@ -17366,7 +17369,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="749" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="749" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B749">
         <v>748</v>
       </c>
@@ -17387,7 +17390,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="750" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="750" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B750">
         <v>749</v>
       </c>
@@ -17408,7 +17411,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="751" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="751" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B751">
         <v>750</v>
       </c>
@@ -17429,7 +17432,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="752" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="752" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B752">
         <v>751</v>
       </c>
@@ -17450,7 +17453,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="753" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="753" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B753">
         <v>752</v>
       </c>
@@ -17471,7 +17474,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="754" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="754" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B754">
         <v>753</v>
       </c>
@@ -17492,7 +17495,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="755" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="755" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B755">
         <v>754</v>
       </c>
@@ -17513,7 +17516,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="756" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="756" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B756">
         <v>755</v>
       </c>
@@ -17534,7 +17537,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="757" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="757" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B757">
         <v>756</v>
       </c>
@@ -17555,7 +17558,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="758" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="758" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B758">
         <v>757</v>
       </c>
@@ -17576,7 +17579,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="759" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="759" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B759">
         <v>758</v>
       </c>
@@ -17597,7 +17600,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="760" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="760" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B760">
         <v>759</v>
       </c>
@@ -17618,7 +17621,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="761" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="761" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B761">
         <v>760</v>
       </c>
@@ -17639,7 +17642,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="762" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="762" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B762">
         <v>761</v>
       </c>
@@ -17660,7 +17663,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="763" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="763" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B763">
         <v>762</v>
       </c>
@@ -17681,7 +17684,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="764" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="764" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B764">
         <v>763</v>
       </c>
@@ -17702,7 +17705,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="765" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="765" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B765">
         <v>764</v>
       </c>
@@ -17723,7 +17726,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="766" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="766" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B766">
         <v>765</v>
       </c>
@@ -17744,7 +17747,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="767" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="767" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B767">
         <v>766</v>
       </c>
@@ -17765,7 +17768,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="768" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="768" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B768">
         <v>767</v>
       </c>
@@ -17786,7 +17789,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="769" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="769" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B769">
         <v>768</v>
       </c>
@@ -17807,7 +17810,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="770" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="770" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B770">
         <v>769</v>
       </c>
@@ -17828,7 +17831,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="771" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="771" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B771">
         <v>770</v>
       </c>
@@ -17849,7 +17852,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="772" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="772" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B772">
         <v>771</v>
       </c>
@@ -17870,7 +17873,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="773" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="773" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B773">
         <v>772</v>
       </c>
@@ -17891,7 +17894,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="774" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="774" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B774">
         <v>773</v>
       </c>
@@ -17912,7 +17915,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="775" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="775" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B775">
         <v>774</v>
       </c>
@@ -17933,7 +17936,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="776" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="776" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B776">
         <v>775</v>
       </c>
@@ -17954,7 +17957,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="777" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="777" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B777">
         <v>776</v>
       </c>
@@ -17975,7 +17978,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="778" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="778" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B778">
         <v>777</v>
       </c>
@@ -17996,7 +17999,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="779" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="779" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B779">
         <v>778</v>
       </c>
@@ -18017,7 +18020,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="780" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="780" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B780">
         <v>779</v>
       </c>
@@ -18038,7 +18041,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="781" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="781" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B781">
         <v>780</v>
       </c>
@@ -18059,7 +18062,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="782" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="782" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B782">
         <v>781</v>
       </c>
@@ -18080,7 +18083,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="783" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="783" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B783">
         <v>782</v>
       </c>
@@ -18101,7 +18104,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="784" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="784" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B784">
         <v>783</v>
       </c>
@@ -18122,7 +18125,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="785" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="785" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B785">
         <v>784</v>
       </c>
@@ -18143,7 +18146,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="786" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="786" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B786">
         <v>785</v>
       </c>
@@ -18164,7 +18167,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="787" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="787" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B787">
         <v>786</v>
       </c>
@@ -18185,7 +18188,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="788" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="788" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B788">
         <v>787</v>
       </c>
@@ -18206,7 +18209,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="789" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="789" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B789">
         <v>788</v>
       </c>
@@ -18227,7 +18230,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="790" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="790" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B790">
         <v>789</v>
       </c>
@@ -18248,7 +18251,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="791" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="791" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B791">
         <v>790</v>
       </c>
@@ -18269,7 +18272,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="792" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="792" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B792">
         <v>791</v>
       </c>
@@ -18290,7 +18293,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="793" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="793" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B793">
         <v>792</v>
       </c>
@@ -18311,7 +18314,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="794" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="794" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B794">
         <v>793</v>
       </c>
@@ -18332,7 +18335,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="795" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="795" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B795">
         <v>794</v>
       </c>
@@ -18353,7 +18356,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="796" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="796" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B796">
         <v>795</v>
       </c>
@@ -18374,7 +18377,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="797" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="797" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B797">
         <v>796</v>
       </c>
@@ -18395,7 +18398,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="798" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="798" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B798">
         <v>797</v>
       </c>
@@ -18416,7 +18419,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="799" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="799" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B799">
         <v>798</v>
       </c>
@@ -18437,7 +18440,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="800" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="800" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B800">
         <v>799</v>
       </c>
@@ -18458,7 +18461,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="801" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="801" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B801">
         <v>800</v>
       </c>
@@ -18479,7 +18482,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="802" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="802" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B802">
         <v>801</v>
       </c>
@@ -18500,7 +18503,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="803" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="803" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B803">
         <v>802</v>
       </c>
@@ -18521,7 +18524,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="804" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="804" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B804">
         <v>803</v>
       </c>
@@ -18542,7 +18545,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="805" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="805" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B805">
         <v>804</v>
       </c>
@@ -18563,7 +18566,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="806" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="806" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B806">
         <v>805</v>
       </c>
@@ -18584,7 +18587,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="807" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="807" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B807">
         <v>806</v>
       </c>
@@ -18605,7 +18608,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="808" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="808" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B808">
         <v>807</v>
       </c>
@@ -18626,7 +18629,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="809" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="809" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B809">
         <v>808</v>
       </c>
@@ -18647,7 +18650,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="810" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="810" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B810">
         <v>809</v>
       </c>
@@ -18668,7 +18671,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="811" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="811" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B811">
         <v>810</v>
       </c>
@@ -18689,7 +18692,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="812" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="812" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B812">
         <v>811</v>
       </c>
@@ -18710,7 +18713,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="813" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="813" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B813">
         <v>812</v>
       </c>
@@ -18731,7 +18734,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="814" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="814" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B814">
         <v>813</v>
       </c>
@@ -18752,7 +18755,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="815" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="815" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B815">
         <v>814</v>
       </c>
@@ -18773,7 +18776,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="816" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="816" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B816">
         <v>815</v>
       </c>
@@ -18794,7 +18797,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="817" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="817" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B817">
         <v>816</v>
       </c>
@@ -18815,7 +18818,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="818" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="818" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B818">
         <v>817</v>
       </c>
@@ -18836,7 +18839,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="819" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="819" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B819">
         <v>818</v>
       </c>
@@ -18857,7 +18860,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="820" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="820" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B820">
         <v>819</v>
       </c>
@@ -18878,7 +18881,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="821" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="821" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B821">
         <v>820</v>
       </c>
@@ -18899,7 +18902,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="822" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="822" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B822">
         <v>821</v>
       </c>
@@ -18920,7 +18923,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="823" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="823" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B823">
         <v>822</v>
       </c>
@@ -18941,7 +18944,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="824" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="824" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B824">
         <v>823</v>
       </c>
@@ -18962,7 +18965,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="825" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="825" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B825">
         <v>824</v>
       </c>
@@ -18983,7 +18986,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="826" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="826" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B826">
         <v>825</v>
       </c>
@@ -19004,7 +19007,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="827" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="827" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B827">
         <v>826</v>
       </c>
@@ -19025,7 +19028,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="828" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="828" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B828">
         <v>827</v>
       </c>
@@ -19046,7 +19049,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="829" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="829" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B829">
         <v>828</v>
       </c>
@@ -19067,7 +19070,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="830" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="830" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B830">
         <v>829</v>
       </c>
@@ -19088,7 +19091,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="831" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="831" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B831">
         <v>830</v>
       </c>
@@ -19109,7 +19112,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="832" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="832" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B832">
         <v>831</v>
       </c>
@@ -19130,7 +19133,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="833" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="833" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B833">
         <v>832</v>
       </c>
@@ -19151,7 +19154,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="834" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="834" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B834">
         <v>833</v>
       </c>
@@ -19172,7 +19175,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="835" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="835" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B835">
         <v>834</v>
       </c>
@@ -19193,7 +19196,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="836" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="836" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B836">
         <v>835</v>
       </c>
@@ -19214,7 +19217,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="837" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="837" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B837">
         <v>836</v>
       </c>
@@ -19235,7 +19238,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="838" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="838" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B838">
         <v>837</v>
       </c>
@@ -19256,7 +19259,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="839" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="839" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B839">
         <v>838</v>
       </c>
@@ -19277,7 +19280,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="840" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="840" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B840">
         <v>839</v>
       </c>
@@ -19298,7 +19301,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="841" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="841" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B841">
         <v>840</v>
       </c>
@@ -19319,7 +19322,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="842" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="842" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B842">
         <v>841</v>
       </c>
@@ -19340,7 +19343,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="843" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="843" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B843">
         <v>842</v>
       </c>
@@ -19361,7 +19364,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="844" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="844" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B844">
         <v>843</v>
       </c>
@@ -19382,7 +19385,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="845" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="845" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B845">
         <v>844</v>
       </c>
@@ -19403,7 +19406,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="846" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="846" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B846">
         <v>845</v>
       </c>
@@ -19424,7 +19427,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="847" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="847" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B847">
         <v>846</v>
       </c>
@@ -19445,7 +19448,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="848" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="848" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B848">
         <v>847</v>
       </c>
@@ -19466,7 +19469,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="849" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="849" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B849">
         <v>848</v>
       </c>
@@ -19487,7 +19490,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="850" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="850" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B850">
         <v>849</v>
       </c>
@@ -19508,7 +19511,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="851" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="851" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B851">
         <v>850</v>
       </c>
@@ -19529,7 +19532,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="852" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="852" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B852">
         <v>851</v>
       </c>
@@ -19550,7 +19553,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="853" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="853" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B853">
         <v>852</v>
       </c>
@@ -19571,7 +19574,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="854" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="854" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B854">
         <v>853</v>
       </c>
@@ -19592,7 +19595,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="855" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="855" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B855">
         <v>854</v>
       </c>
@@ -19613,7 +19616,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="856" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="856" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B856">
         <v>855</v>
       </c>
@@ -19634,7 +19637,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="857" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="857" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B857">
         <v>856</v>
       </c>
@@ -19655,7 +19658,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="858" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="858" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B858">
         <v>857</v>
       </c>
@@ -19676,7 +19679,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="859" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="859" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B859">
         <v>858</v>
       </c>
@@ -19697,7 +19700,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="860" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="860" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B860">
         <v>859</v>
       </c>
@@ -19718,7 +19721,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="861" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="861" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B861">
         <v>860</v>
       </c>
@@ -19739,7 +19742,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="862" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="862" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B862">
         <v>861</v>
       </c>
@@ -19760,7 +19763,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="863" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="863" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B863">
         <v>862</v>
       </c>
@@ -19781,7 +19784,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="864" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="864" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B864">
         <v>863</v>
       </c>
@@ -19802,7 +19805,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="865" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="865" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B865">
         <v>864</v>
       </c>
@@ -19823,7 +19826,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="866" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="866" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B866">
         <v>865</v>
       </c>
@@ -19844,7 +19847,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="867" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="867" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B867">
         <v>866</v>
       </c>
@@ -19865,7 +19868,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="868" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="868" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B868">
         <v>867</v>
       </c>
@@ -19886,7 +19889,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="869" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="869" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B869">
         <v>868</v>
       </c>
@@ -19907,7 +19910,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="870" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="870" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B870">
         <v>869</v>
       </c>
@@ -19928,7 +19931,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="871" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="871" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B871">
         <v>870</v>
       </c>
@@ -19949,7 +19952,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="872" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="872" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B872">
         <v>871</v>
       </c>
@@ -19970,7 +19973,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="873" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="873" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B873">
         <v>872</v>
       </c>
@@ -19991,7 +19994,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="874" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="874" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B874">
         <v>873</v>
       </c>
@@ -20012,7 +20015,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="875" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="875" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B875">
         <v>874</v>
       </c>
@@ -20033,7 +20036,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="876" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="876" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B876">
         <v>875</v>
       </c>
@@ -20054,7 +20057,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="877" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="877" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B877">
         <v>876</v>
       </c>
@@ -20075,7 +20078,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="878" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="878" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B878">
         <v>877</v>
       </c>
@@ -20096,7 +20099,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="879" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="879" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B879">
         <v>878</v>
       </c>
@@ -20117,7 +20120,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="880" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="880" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B880">
         <v>879</v>
       </c>
@@ -20138,7 +20141,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="881" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="881" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B881">
         <v>880</v>
       </c>
@@ -20159,7 +20162,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="882" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="882" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B882">
         <v>881</v>
       </c>
@@ -20180,7 +20183,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="883" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="883" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B883">
         <v>882</v>
       </c>
@@ -20201,7 +20204,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="884" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="884" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B884">
         <v>883</v>
       </c>
@@ -20222,7 +20225,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="885" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="885" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B885">
         <v>884</v>
       </c>
@@ -20243,7 +20246,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="886" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="886" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B886">
         <v>885</v>
       </c>
@@ -20264,7 +20267,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="887" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="887" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B887">
         <v>886</v>
       </c>
@@ -20285,7 +20288,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="888" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="888" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B888">
         <v>887</v>
       </c>
@@ -20306,7 +20309,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="889" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="889" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B889">
         <v>888</v>
       </c>
@@ -20327,7 +20330,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="890" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="890" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B890">
         <v>889</v>
       </c>
@@ -20348,7 +20351,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="891" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="891" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B891">
         <v>890</v>
       </c>
@@ -20369,7 +20372,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="892" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="892" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B892">
         <v>891</v>
       </c>
@@ -20390,7 +20393,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="893" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="893" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B893">
         <v>892</v>
       </c>
@@ -20411,7 +20414,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="894" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="894" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B894">
         <v>893</v>
       </c>
@@ -20432,7 +20435,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="895" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="895" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B895">
         <v>894</v>
       </c>
@@ -20453,7 +20456,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="896" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="896" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B896">
         <v>895</v>
       </c>
@@ -20474,7 +20477,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="897" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="897" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B897">
         <v>896</v>
       </c>
@@ -20495,7 +20498,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="898" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="898" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B898">
         <v>897</v>
       </c>
@@ -20516,7 +20519,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="899" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="899" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B899">
         <v>898</v>
       </c>
@@ -20537,7 +20540,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="900" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="900" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B900">
         <v>899</v>
       </c>
@@ -20558,7 +20561,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="901" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="901" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B901">
         <v>900</v>
       </c>
@@ -20579,7 +20582,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="902" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="902" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B902">
         <v>901</v>
       </c>
@@ -20600,7 +20603,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="903" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="903" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B903">
         <v>902</v>
       </c>
@@ -20621,7 +20624,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="904" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="904" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B904">
         <v>903</v>
       </c>
@@ -20642,7 +20645,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="905" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="905" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B905">
         <v>904</v>
       </c>
@@ -20663,7 +20666,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="906" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="906" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B906">
         <v>905</v>
       </c>
@@ -20684,7 +20687,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="907" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="907" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B907">
         <v>906</v>
       </c>
@@ -20705,7 +20708,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="908" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="908" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B908">
         <v>907</v>
       </c>
@@ -20726,7 +20729,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="909" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="909" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B909">
         <v>908</v>
       </c>
@@ -20747,7 +20750,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="910" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="910" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B910">
         <v>909</v>
       </c>
@@ -20768,7 +20771,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="911" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="911" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B911">
         <v>910</v>
       </c>
@@ -20789,7 +20792,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="912" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="912" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B912">
         <v>911</v>
       </c>
@@ -20810,7 +20813,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="913" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="913" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B913">
         <v>912</v>
       </c>
@@ -20831,7 +20834,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="914" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="914" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B914">
         <v>913</v>
       </c>
@@ -20852,7 +20855,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="915" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="915" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B915">
         <v>914</v>
       </c>
@@ -20873,7 +20876,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="916" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="916" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B916">
         <v>915</v>
       </c>
@@ -20894,7 +20897,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="917" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="917" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B917">
         <v>916</v>
       </c>
@@ -20915,7 +20918,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="918" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="918" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B918">
         <v>917</v>
       </c>
@@ -20936,7 +20939,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="919" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="919" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B919">
         <v>918</v>
       </c>
@@ -20957,7 +20960,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="920" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="920" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B920">
         <v>919</v>
       </c>
@@ -20978,7 +20981,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="921" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="921" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B921">
         <v>920</v>
       </c>
@@ -20999,7 +21002,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="922" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="922" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B922">
         <v>921</v>
       </c>
@@ -21020,7 +21023,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="923" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="923" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B923">
         <v>922</v>
       </c>
@@ -21041,7 +21044,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="924" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="924" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B924">
         <v>923</v>
       </c>
@@ -21062,7 +21065,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="925" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="925" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B925">
         <v>924</v>
       </c>
@@ -21083,7 +21086,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="926" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="926" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B926">
         <v>925</v>
       </c>
@@ -21104,7 +21107,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="927" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="927" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B927">
         <v>926</v>
       </c>
@@ -21125,7 +21128,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="928" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="928" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B928">
         <v>927</v>
       </c>
@@ -21146,7 +21149,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="929" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="929" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B929">
         <v>928</v>
       </c>
@@ -21167,7 +21170,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="930" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="930" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B930">
         <v>929</v>
       </c>
@@ -21188,7 +21191,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="931" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="931" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B931">
         <v>930</v>
       </c>
@@ -21209,7 +21212,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="932" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="932" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B932">
         <v>931</v>
       </c>
@@ -21230,7 +21233,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="933" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="933" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B933">
         <v>932</v>
       </c>
@@ -21251,7 +21254,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="934" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="934" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B934">
         <v>933</v>
       </c>
@@ -21272,7 +21275,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="935" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="935" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B935">
         <v>934</v>
       </c>
@@ -21293,7 +21296,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="936" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="936" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B936">
         <v>935</v>
       </c>
@@ -21314,7 +21317,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="937" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="937" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B937">
         <v>936</v>
       </c>
@@ -21335,7 +21338,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="938" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="938" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B938">
         <v>937</v>
       </c>
@@ -21356,7 +21359,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="939" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="939" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B939">
         <v>938</v>
       </c>
@@ -21377,7 +21380,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="940" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="940" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B940">
         <v>939</v>
       </c>
@@ -21398,7 +21401,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="941" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="941" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B941">
         <v>940</v>
       </c>
@@ -21419,7 +21422,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="942" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="942" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B942">
         <v>941</v>
       </c>
@@ -21440,7 +21443,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="943" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="943" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B943">
         <v>942</v>
       </c>
@@ -21461,7 +21464,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="944" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="944" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B944">
         <v>943</v>
       </c>
@@ -21482,7 +21485,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="945" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="945" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B945">
         <v>944</v>
       </c>
@@ -21503,7 +21506,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="946" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="946" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B946">
         <v>945</v>
       </c>
@@ -21524,7 +21527,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="947" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="947" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B947">
         <v>946</v>
       </c>
@@ -21545,7 +21548,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="948" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="948" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B948">
         <v>947</v>
       </c>
@@ -21566,7 +21569,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="949" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="949" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B949">
         <v>948</v>
       </c>
@@ -21587,7 +21590,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="950" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="950" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B950">
         <v>949</v>
       </c>
@@ -21608,7 +21611,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="951" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="951" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B951">
         <v>950</v>
       </c>
@@ -21629,7 +21632,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="952" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="952" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B952">
         <v>951</v>
       </c>
@@ -21650,7 +21653,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="953" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="953" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B953">
         <v>952</v>
       </c>
@@ -21671,7 +21674,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="954" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="954" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B954">
         <v>953</v>
       </c>
@@ -21692,7 +21695,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="955" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="955" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B955">
         <v>954</v>
       </c>
@@ -21713,7 +21716,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="956" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="956" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B956">
         <v>955</v>
       </c>
@@ -21734,7 +21737,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="957" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="957" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B957">
         <v>956</v>
       </c>
@@ -21755,7 +21758,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="958" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="958" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B958">
         <v>957</v>
       </c>
@@ -21776,7 +21779,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="959" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="959" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B959">
         <v>958</v>
       </c>
@@ -21797,7 +21800,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="960" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="960" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B960">
         <v>959</v>
       </c>
@@ -21818,7 +21821,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="961" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="961" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B961">
         <v>960</v>
       </c>
@@ -21839,7 +21842,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="962" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="962" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B962">
         <v>961</v>
       </c>
@@ -21860,7 +21863,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="963" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="963" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B963">
         <v>962</v>
       </c>
@@ -21869,7 +21872,7 @@
         <v>185089</v>
       </c>
       <c r="D963">
-        <f t="shared" ref="D963:D1000" si="67">C964-C963</f>
+        <f t="shared" ref="D963:D1007" si="67">C964-C963</f>
         <v>385</v>
       </c>
       <c r="E963">
@@ -21881,7 +21884,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="964" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="964" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B964">
         <v>963</v>
       </c>
@@ -21902,7 +21905,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="965" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="965" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B965">
         <v>964</v>
       </c>
@@ -21923,7 +21926,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="966" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="966" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B966">
         <v>965</v>
       </c>
@@ -21944,7 +21947,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="967" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="967" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B967">
         <v>966</v>
       </c>
@@ -21965,7 +21968,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="968" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="968" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B968">
         <v>967</v>
       </c>
@@ -21986,7 +21989,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="969" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="969" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B969">
         <v>968</v>
       </c>
@@ -22007,7 +22010,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="970" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="970" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B970">
         <v>969</v>
       </c>
@@ -22028,7 +22031,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="971" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="971" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B971">
         <v>970</v>
       </c>
@@ -22049,7 +22052,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="972" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="972" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B972">
         <v>971</v>
       </c>
@@ -22070,7 +22073,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="973" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="973" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B973">
         <v>972</v>
       </c>
@@ -22091,7 +22094,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="974" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="974" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B974">
         <v>973</v>
       </c>
@@ -22112,7 +22115,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="975" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="975" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B975">
         <v>974</v>
       </c>
@@ -22133,7 +22136,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="976" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="976" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B976">
         <v>975</v>
       </c>
@@ -22154,7 +22157,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="977" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="977" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B977">
         <v>976</v>
       </c>
@@ -22175,7 +22178,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="978" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="978" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B978">
         <v>977</v>
       </c>
@@ -22196,7 +22199,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="979" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="979" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B979">
         <v>978</v>
       </c>
@@ -22217,7 +22220,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="980" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="980" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B980">
         <v>979</v>
       </c>
@@ -22238,7 +22241,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="981" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="981" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B981">
         <v>980</v>
       </c>
@@ -22259,7 +22262,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="982" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="982" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B982">
         <v>981</v>
       </c>
@@ -22280,7 +22283,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="983" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="983" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B983">
         <v>982</v>
       </c>
@@ -22301,7 +22304,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="984" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="984" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B984">
         <v>983</v>
       </c>
@@ -22322,7 +22325,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="985" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="985" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B985">
         <v>984</v>
       </c>
@@ -22343,7 +22346,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="986" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="986" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B986">
         <v>985</v>
       </c>
@@ -22364,7 +22367,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="987" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="987" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B987">
         <v>986</v>
       </c>
@@ -22385,7 +22388,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="988" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="988" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B988">
         <v>987</v>
       </c>
@@ -22406,7 +22409,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="989" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="989" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B989">
         <v>988</v>
       </c>
@@ -22427,7 +22430,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="990" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="990" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B990">
         <v>989</v>
       </c>
@@ -22448,7 +22451,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="991" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="991" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B991">
         <v>990</v>
       </c>
@@ -22469,7 +22472,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="992" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="992" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B992">
         <v>991</v>
       </c>
@@ -22490,7 +22493,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="993" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="993" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B993">
         <v>992</v>
       </c>
@@ -22511,7 +22514,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="994" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="994" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B994">
         <v>993</v>
       </c>
@@ -22532,7 +22535,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="995" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="995" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B995">
         <v>994</v>
       </c>
@@ -22553,7 +22556,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="996" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="996" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B996">
         <v>995</v>
       </c>
@@ -22574,7 +22577,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="997" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="997" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B997">
         <v>996</v>
       </c>
@@ -22595,7 +22598,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="998" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="998" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B998">
         <v>997</v>
       </c>
@@ -22616,7 +22619,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="999" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="999" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B999">
         <v>998</v>
       </c>
@@ -22637,7 +22640,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="1000" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="1000" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B1000">
         <v>999</v>
       </c>
@@ -22658,7 +22661,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="1001" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="1001" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B1001">
         <v>1000</v>
       </c>
@@ -22667,7 +22670,8 @@
         <v>200000</v>
       </c>
       <c r="D1001">
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>-200000</v>
       </c>
       <c r="E1001">
         <f t="shared" si="68"/>
@@ -22678,7 +22682,13 @@
         <v>505</v>
       </c>
     </row>
-    <row r="1003" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="1002" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1002">
+        <f t="shared" si="67"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1003" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B1003">
         <v>7</v>
       </c>
@@ -22686,6 +22696,10 @@
         <f t="shared" si="70"/>
         <v>10</v>
       </c>
+      <c r="D1003">
+        <f t="shared" si="67"/>
+        <v>3949817</v>
+      </c>
       <c r="E1003">
         <f t="shared" si="68"/>
         <v>1</v>
@@ -22694,8 +22708,14 @@
         <f t="shared" si="69"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="1004" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="K1003" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1003" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1004" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B1004">
         <v>4444</v>
       </c>
@@ -22703,6 +22723,10 @@
         <f t="shared" si="70"/>
         <v>3949827</v>
       </c>
+      <c r="D1004">
+        <f t="shared" si="67"/>
+        <v>56176050173</v>
+      </c>
       <c r="E1004">
         <f t="shared" si="68"/>
         <v>445</v>
@@ -22711,8 +22735,15 @@
         <f t="shared" si="69"/>
         <v>2225</v>
       </c>
-    </row>
-    <row r="1005" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="K1004">
+        <v>0</v>
+      </c>
+      <c r="L1004">
+        <f t="shared" ref="L1004:L1024" si="71">SQRT(K1006*5-9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B1005">
         <v>530000</v>
       </c>
@@ -22720,6 +22751,10 @@
         <f>INT((B1005*B1005+3)/5)</f>
         <v>56180000000</v>
       </c>
+      <c r="D1005">
+        <f t="shared" si="67"/>
+        <v>12042583012346</v>
+      </c>
       <c r="E1005">
         <f t="shared" si="68"/>
         <v>53001</v>
@@ -22728,8 +22763,15 @@
         <f t="shared" si="69"/>
         <v>265005</v>
       </c>
-    </row>
-    <row r="1006" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="K1005">
+        <v>1</v>
+      </c>
+      <c r="L1005">
+        <f t="shared" si="71"/>
+        <v>2.4494897427831779</v>
+      </c>
+    </row>
+    <row r="1006" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B1006">
         <v>7777777</v>
       </c>
@@ -22737,6 +22779,10 @@
         <f>INT((B1006*B1006+3)/5)</f>
         <v>12098763012346</v>
       </c>
+      <c r="D1006">
+        <f t="shared" si="67"/>
+        <v>2.4499879012369879E+18</v>
+      </c>
       <c r="E1006">
         <f t="shared" si="68"/>
         <v>777778</v>
@@ -22745,8 +22791,15 @@
         <f t="shared" si="69"/>
         <v>3888890</v>
       </c>
-    </row>
-    <row r="1007" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="K1006">
+        <v>2</v>
+      </c>
+      <c r="L1006">
+        <f t="shared" si="71"/>
+        <v>3.3166247903553998</v>
+      </c>
+    </row>
+    <row r="1007" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B1007">
         <v>3500000000</v>
       </c>
@@ -22754,14 +22807,367 @@
         <f>INT((B1007*B1007+3)/5)</f>
         <v>2.45E+18</v>
       </c>
-    </row>
-    <row r="1008" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B1008">
-        <v>7777777</v>
-      </c>
-      <c r="C1008">
-        <f>B1008*7</f>
-        <v>54444439</v>
+      <c r="D1007">
+        <f t="shared" si="67"/>
+        <v>-2.45E+18</v>
+      </c>
+      <c r="K1007">
+        <v>3</v>
+      </c>
+      <c r="L1007">
+        <f t="shared" si="71"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1008" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1008">
+        <v>4</v>
+      </c>
+      <c r="L1008">
+        <f t="shared" si="71"/>
+        <v>4.5825756949558398</v>
+      </c>
+    </row>
+    <row r="1009" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1009">
+        <v>5</v>
+      </c>
+      <c r="L1009">
+        <f t="shared" si="71"/>
+        <v>5.0990195135927845</v>
+      </c>
+    </row>
+    <row r="1010" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1010">
+        <v>6</v>
+      </c>
+      <c r="L1010">
+        <f t="shared" si="71"/>
+        <v>5.5677643628300215</v>
+      </c>
+    </row>
+    <row r="1011" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1011">
+        <v>7</v>
+      </c>
+      <c r="L1011">
+        <f t="shared" si="71"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1012" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1012">
+        <v>8</v>
+      </c>
+      <c r="L1012">
+        <f t="shared" si="71"/>
+        <v>6.4031242374328485</v>
+      </c>
+    </row>
+    <row r="1013" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1013">
+        <v>9</v>
+      </c>
+      <c r="L1013">
+        <f t="shared" si="71"/>
+        <v>6.7823299831252681</v>
+      </c>
+    </row>
+    <row r="1014" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1014">
+        <v>10</v>
+      </c>
+      <c r="L1014">
+        <f t="shared" si="71"/>
+        <v>7.1414284285428504</v>
+      </c>
+    </row>
+    <row r="1015" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1015">
+        <v>11</v>
+      </c>
+      <c r="L1015">
+        <f t="shared" si="71"/>
+        <v>7.4833147735478827</v>
+      </c>
+    </row>
+    <row r="1016" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1016">
+        <v>12</v>
+      </c>
+      <c r="L1016">
+        <f t="shared" si="71"/>
+        <v>7.810249675906654</v>
+      </c>
+    </row>
+    <row r="1017" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1017">
+        <v>13</v>
+      </c>
+      <c r="L1017">
+        <f t="shared" si="71"/>
+        <v>8.1240384046359608</v>
+      </c>
+    </row>
+    <row r="1018" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1018">
+        <v>14</v>
+      </c>
+      <c r="L1018">
+        <f t="shared" si="71"/>
+        <v>8.426149773176359</v>
+      </c>
+    </row>
+    <row r="1019" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1019">
+        <v>15</v>
+      </c>
+      <c r="L1019">
+        <f t="shared" si="71"/>
+        <v>8.717797887081348</v>
+      </c>
+    </row>
+    <row r="1020" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1020">
+        <v>16</v>
+      </c>
+      <c r="L1020">
+        <f t="shared" si="71"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1021" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1021">
+        <v>17</v>
+      </c>
+      <c r="L1021">
+        <f t="shared" si="71"/>
+        <v>9.2736184954957039</v>
+      </c>
+    </row>
+    <row r="1022" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1022">
+        <v>18</v>
+      </c>
+      <c r="L1022">
+        <f t="shared" si="71"/>
+        <v>9.5393920141694561</v>
+      </c>
+    </row>
+    <row r="1023" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1023">
+        <v>19</v>
+      </c>
+      <c r="L1023">
+        <f t="shared" ref="L1023:L1046" si="72">SQRT(K1025*5-9)</f>
+        <v>6.4031242374328485</v>
+      </c>
+    </row>
+    <row r="1024" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1024">
+        <v>20</v>
+      </c>
+      <c r="L1024">
+        <f t="shared" si="72"/>
+        <v>6.7823299831252681</v>
+      </c>
+    </row>
+    <row r="1025" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1025">
+        <v>10</v>
+      </c>
+      <c r="L1025">
+        <f t="shared" si="72"/>
+        <v>7.1414284285428504</v>
+      </c>
+    </row>
+    <row r="1026" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1026">
+        <v>11</v>
+      </c>
+      <c r="L1026">
+        <f t="shared" si="72"/>
+        <v>4443.9988748873466</v>
+      </c>
+    </row>
+    <row r="1027" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1027">
+        <v>12</v>
+      </c>
+      <c r="L1027">
+        <f t="shared" si="72"/>
+        <v>4443.9994374437092</v>
+      </c>
+    </row>
+    <row r="1028" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1028">
+        <v>3949827</v>
+      </c>
+      <c r="L1028">
+        <f t="shared" si="72"/>
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="1029" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1029">
+        <v>3949828</v>
+      </c>
+      <c r="L1029">
+        <f t="shared" si="72"/>
+        <v>11.224972160321824</v>
+      </c>
+    </row>
+    <row r="1030" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1030">
+        <v>3949829</v>
+      </c>
+      <c r="L1030">
+        <f t="shared" si="72"/>
+        <v>11.445523142259598</v>
+      </c>
+    </row>
+    <row r="1031" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1031">
+        <v>27</v>
+      </c>
+      <c r="L1031">
+        <f t="shared" si="72"/>
+        <v>11.661903789690601</v>
+      </c>
+    </row>
+    <row r="1032" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1032">
+        <v>28</v>
+      </c>
+      <c r="L1032">
+        <f t="shared" si="72"/>
+        <v>11.874342087037917</v>
+      </c>
+    </row>
+    <row r="1033" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1033">
+        <v>29</v>
+      </c>
+      <c r="L1033">
+        <f t="shared" si="72"/>
+        <v>12.083045973594572</v>
+      </c>
+    </row>
+    <row r="1034" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1034">
+        <v>30</v>
+      </c>
+      <c r="L1034">
+        <f t="shared" si="72"/>
+        <v>12.288205727444508</v>
+      </c>
+    </row>
+    <row r="1035" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1035">
+        <v>31</v>
+      </c>
+      <c r="L1035">
+        <f t="shared" si="72"/>
+        <v>12.489995996796797</v>
+      </c>
+    </row>
+    <row r="1036" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1036">
+        <v>32</v>
+      </c>
+      <c r="L1036">
+        <f t="shared" si="72"/>
+        <v>12.68857754044952</v>
+      </c>
+    </row>
+    <row r="1037" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1037">
+        <v>33</v>
+      </c>
+      <c r="L1037">
+        <f t="shared" si="72"/>
+        <v>12.884098726725126</v>
+      </c>
+    </row>
+    <row r="1038" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1038">
+        <v>34</v>
+      </c>
+      <c r="L1038">
+        <f t="shared" si="72"/>
+        <v>13.076696830622021</v>
+      </c>
+    </row>
+    <row r="1039" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1039">
+        <v>35</v>
+      </c>
+      <c r="L1039">
+        <f t="shared" si="72"/>
+        <v>13.266499161421599</v>
+      </c>
+    </row>
+    <row r="1040" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1040">
+        <v>36</v>
+      </c>
+      <c r="L1040">
+        <f t="shared" si="72"/>
+        <v>13.45362404707371</v>
+      </c>
+    </row>
+    <row r="1041" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1041">
+        <v>37</v>
+      </c>
+      <c r="L1041">
+        <f t="shared" si="72"/>
+        <v>13.638181696985855</v>
+      </c>
+    </row>
+    <row r="1042" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1042">
+        <v>38</v>
+      </c>
+      <c r="L1042">
+        <f t="shared" si="72"/>
+        <v>13.820274961085254</v>
+      </c>
+    </row>
+    <row r="1043" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1043">
+        <v>39</v>
+      </c>
+      <c r="L1043">
+        <f t="shared" si="72"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1044" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1044">
+        <v>40</v>
+      </c>
+      <c r="L1044">
+        <f t="shared" si="72"/>
+        <v>14.177446878757825</v>
+      </c>
+    </row>
+    <row r="1045" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1045">
+        <v>41</v>
+      </c>
+      <c r="L1045" t="e">
+        <f t="shared" si="72"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="1046" spans="11:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1046">
+        <v>42</v>
+      </c>
+      <c r="L1046" t="e">
+        <f t="shared" si="72"/>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
